--- a/.00_scratch/lu_questions_cond_rec_MASTER_2024-12-01.xlsx
+++ b/.00_scratch/lu_questions_cond_rec_MASTER_2024-12-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cassi\Documents\GitHub_AB-RCSC\rc-decision-support-tool\.00_scratch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE217D5-6865-43DA-AF6D-1CD3FEC1D668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F667BC84-965E-4818-A046-CF2BCC3F2A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="872" xr2:uid="{A3A66B7D-82F1-429E-93DA-F36142727237}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="872" xr2:uid="{A3A66B7D-82F1-429E-93DA-F36142727237}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="15" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11298" uniqueCount="2360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11298" uniqueCount="2359">
   <si>
     <t>field_code</t>
   </si>
@@ -6750,9 +6750,6 @@
   </si>
   <si>
     <t>01_23_marking_code.ipynb</t>
-  </si>
-  <si>
-    <t>01_25_3ormore_cat_ids.ipynb</t>
   </si>
   <si>
     <t>01_26_auxillary_info.ipynb</t>
@@ -8691,7 +8688,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9120,13 +9117,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
@@ -9375,6 +9366,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFEDE2F6"/>
           <bgColor rgb="FFEDE2F6"/>
         </patternFill>
@@ -9417,14 +9416,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFEF2CB"/>
           <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9543,16 +9534,48 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFBE4D5"/>
+          <bgColor rgb="FFFBE4D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEDE2F6"/>
+          <bgColor rgb="FFEDE2F6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9607,22 +9630,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFBE4D5"/>
           <bgColor rgb="FFFBE4D5"/>
         </patternFill>
@@ -9633,14 +9640,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEDE2F6"/>
           <bgColor rgb="FFEDE2F6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9671,16 +9670,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFBE4D5"/>
-          <bgColor rgb="FFFBE4D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEDE2F6"/>
-          <bgColor rgb="FFEDE2F6"/>
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9967,20 +9958,20 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF2F2F2"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2F2F2"/>
+          <bgColor rgb="FFF2F2F2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10033,11 +10024,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10054,11 +10045,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10148,8 +10139,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10164,16 +10155,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFD9"/>
-          <bgColor rgb="FFE2EFD9"/>
+          <fgColor rgb="FFEDE2F6"/>
+          <bgColor rgb="FFEDE2F6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10188,8 +10179,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEDE2F6"/>
-          <bgColor rgb="FFEDE2F6"/>
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10254,30 +10245,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFE2EFD9"/>
           <bgColor rgb="FFE2EFD9"/>
         </patternFill>
@@ -10294,8 +10261,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDEEAF6"/>
-          <bgColor rgb="FFDEEAF6"/>
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10310,8 +10277,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10336,6 +10319,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEDE2F6"/>
           <bgColor rgb="FFEDE2F6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10948,8 +10939,8 @@
   <dimension ref="A1:AF63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15"/>
@@ -11089,7 +11080,7 @@
         <v>51</v>
       </c>
       <c r="C2" s="130" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D2" s="130" t="s">
         <v>1339</v>
@@ -12801,7 +12792,7 @@
     </row>
     <row r="20" spans="1:32" ht="15.75">
       <c r="A20" s="130" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B20" s="130">
         <v>5</v>
@@ -12897,7 +12888,7 @@
     </row>
     <row r="21" spans="1:32" ht="94.5">
       <c r="A21" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B21" s="130">
         <v>6</v>
@@ -12995,7 +12986,7 @@
     </row>
     <row r="22" spans="1:32" ht="126">
       <c r="A22" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B22" s="130">
         <v>0</v>
@@ -13093,7 +13084,7 @@
     </row>
     <row r="23" spans="1:32" ht="94.5">
       <c r="A23" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B23" s="130">
         <v>0</v>
@@ -13191,7 +13182,7 @@
     </row>
     <row r="24" spans="1:32" ht="15.75">
       <c r="A24" s="130" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B24" s="130">
         <v>16</v>
@@ -13287,7 +13278,7 @@
     </row>
     <row r="25" spans="1:32" ht="15.75">
       <c r="A25" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B25" s="130">
         <v>20</v>
@@ -13381,7 +13372,7 @@
     </row>
     <row r="26" spans="1:32" ht="157.5">
       <c r="A26" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B26" s="130">
         <v>32</v>
@@ -13479,7 +13470,7 @@
     </row>
     <row r="27" spans="1:32" ht="78.75">
       <c r="A27" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B27" s="130">
         <v>33</v>
@@ -13577,13 +13568,13 @@
     </row>
     <row r="28" spans="1:32" ht="236.25">
       <c r="A28" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B28" s="130">
         <v>34</v>
       </c>
       <c r="C28" s="130" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D28" s="130" t="s">
         <v>1335</v>
@@ -13607,7 +13598,7 @@
         <v>1256</v>
       </c>
       <c r="K28" s="178" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="L28" s="132" t="s">
         <v>1483</v>
@@ -13673,13 +13664,13 @@
     </row>
     <row r="29" spans="1:32" ht="78.75">
       <c r="A29" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B29" s="130">
         <v>35</v>
       </c>
       <c r="C29" s="130" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D29" s="130" t="s">
         <v>1335</v>
@@ -13771,13 +13762,13 @@
     </row>
     <row r="30" spans="1:32" ht="94.5">
       <c r="A30" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B30" s="130">
         <v>36</v>
       </c>
       <c r="C30" s="130" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D30" s="130" t="s">
         <v>1335</v>
@@ -13869,13 +13860,13 @@
     </row>
     <row r="31" spans="1:32" ht="78.75">
       <c r="A31" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B31" s="130">
         <v>37</v>
       </c>
       <c r="C31" s="130" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="D31" s="130" t="s">
         <v>1335</v>
@@ -13967,13 +13958,13 @@
     </row>
     <row r="32" spans="1:32" ht="78.75">
       <c r="A32" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B32" s="130">
         <v>38</v>
       </c>
       <c r="C32" s="130" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D32" s="130" t="s">
         <v>1335</v>
@@ -14065,13 +14056,13 @@
     </row>
     <row r="33" spans="1:32" ht="15.75">
       <c r="A33" s="130" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B33" s="130">
         <v>44</v>
       </c>
       <c r="C33" s="130" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D33" s="130" t="s">
         <v>1338</v>
@@ -14161,13 +14152,13 @@
     </row>
     <row r="34" spans="1:32" ht="15.75">
       <c r="A34" s="130" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B34" s="130">
         <v>45</v>
       </c>
       <c r="C34" s="130" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D34" s="130" t="s">
         <v>1338</v>
@@ -14222,7 +14213,7 @@
         <v>1954</v>
       </c>
       <c r="V34" s="132" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="W34" s="130" t="s">
         <v>2001</v>
@@ -14257,13 +14248,13 @@
     </row>
     <row r="35" spans="1:32" ht="15.75">
       <c r="A35" s="130" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B35" s="130">
         <v>46</v>
       </c>
       <c r="C35" s="130" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D35" s="130" t="s">
         <v>1338</v>
@@ -14318,33 +14309,33 @@
         <v>1955</v>
       </c>
       <c r="V35" s="132" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="W35" s="130" t="s">
         <v>2002</v>
       </c>
-      <c r="X35" s="182" t="s">
-        <v>947</v>
-      </c>
-      <c r="Y35" s="182" t="s">
-        <v>947</v>
-      </c>
-      <c r="Z35" s="182" t="s">
-        <v>947</v>
-      </c>
-      <c r="AA35" s="182" t="s">
-        <v>947</v>
-      </c>
-      <c r="AB35" s="182" t="s">
-        <v>947</v>
-      </c>
-      <c r="AC35" s="182" t="s">
-        <v>947</v>
-      </c>
-      <c r="AD35" s="182" t="s">
-        <v>947</v>
-      </c>
-      <c r="AE35" s="182" t="s">
+      <c r="X35" s="136" t="s">
+        <v>947</v>
+      </c>
+      <c r="Y35" s="136" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z35" s="136" t="s">
+        <v>947</v>
+      </c>
+      <c r="AA35" s="136" t="s">
+        <v>947</v>
+      </c>
+      <c r="AB35" s="136" t="s">
+        <v>947</v>
+      </c>
+      <c r="AC35" s="136" t="s">
+        <v>947</v>
+      </c>
+      <c r="AD35" s="136" t="s">
+        <v>947</v>
+      </c>
+      <c r="AE35" s="136" t="s">
         <v>947</v>
       </c>
       <c r="AF35" s="132" t="s">
@@ -14353,13 +14344,13 @@
     </row>
     <row r="36" spans="1:32" ht="94.5">
       <c r="A36" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B36" s="130">
         <v>7</v>
       </c>
       <c r="C36" s="130" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D36" s="130" t="s">
         <v>1338</v>
@@ -14451,13 +14442,13 @@
     </row>
     <row r="37" spans="1:32" ht="15.75">
       <c r="A37" s="130" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B37" s="130">
         <v>47</v>
       </c>
       <c r="C37" s="130" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D37" s="130" t="s">
         <v>1338</v>
@@ -14547,13 +14538,13 @@
     </row>
     <row r="38" spans="1:32" ht="15.75">
       <c r="A38" s="130" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B38" s="130">
         <v>48</v>
       </c>
       <c r="C38" s="130" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D38" s="130" t="s">
         <v>1338</v>
@@ -14643,13 +14634,13 @@
     </row>
     <row r="39" spans="1:32" ht="15.75">
       <c r="A39" s="130" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B39" s="130">
         <v>49</v>
       </c>
       <c r="C39" s="130" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D39" s="130" t="s">
         <v>1338</v>
@@ -14704,7 +14695,7 @@
         <v>1957</v>
       </c>
       <c r="V39" s="132" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="W39" s="130" t="s">
         <v>2004</v>
@@ -14739,13 +14730,13 @@
     </row>
     <row r="40" spans="1:32" ht="78.75">
       <c r="A40" s="130" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B40" s="130">
         <v>50</v>
       </c>
       <c r="C40" s="130" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D40" s="130" t="s">
         <v>1338</v>
@@ -14802,7 +14793,7 @@
         <v>1957</v>
       </c>
       <c r="V40" s="132" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="W40" s="130" t="s">
         <v>2004</v>
@@ -14837,13 +14828,13 @@
     </row>
     <row r="41" spans="1:32" ht="94.5">
       <c r="A41" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B41" s="130">
         <v>52</v>
       </c>
       <c r="C41" s="130" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D41" s="130" t="s">
         <v>1339</v>
@@ -14935,13 +14926,13 @@
     </row>
     <row r="42" spans="1:32" ht="15.75">
       <c r="A42" s="130" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B42" s="130">
         <v>54</v>
       </c>
       <c r="C42" s="130" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D42" s="130" t="s">
         <v>1339</v>
@@ -15029,18 +15020,18 @@
     </row>
     <row r="43" spans="1:32" ht="283.5">
       <c r="A43" s="130" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B43" s="130">
         <v>54</v>
       </c>
       <c r="C43" s="130" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D43" s="130" t="s">
         <v>1339</v>
       </c>
-      <c r="E43" s="180" t="s">
+      <c r="E43" s="171" t="s">
         <v>456</v>
       </c>
       <c r="F43" s="123" t="s">
@@ -15125,13 +15116,13 @@
     </row>
     <row r="44" spans="1:32" ht="15.75">
       <c r="A44" s="130" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B44" s="130">
         <v>55</v>
       </c>
       <c r="C44" s="130" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D44" s="130" t="s">
         <v>1339</v>
@@ -15174,7 +15165,7 @@
       <c r="R44" s="142" t="s">
         <v>947</v>
       </c>
-      <c r="S44" s="181" t="s">
+      <c r="S44" s="180" t="s">
         <v>947</v>
       </c>
       <c r="T44" s="134" t="s">
@@ -15219,13 +15210,13 @@
     </row>
     <row r="45" spans="1:32" ht="126">
       <c r="A45" s="130" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B45" s="130">
         <v>56</v>
       </c>
       <c r="C45" s="130" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D45" s="130" t="s">
         <v>1339</v>
@@ -15285,30 +15276,30 @@
         <v>460</v>
       </c>
       <c r="W45" s="130" t="s">
-        <v>2069</v>
-      </c>
-      <c r="X45" s="183" t="s">
-        <v>947</v>
-      </c>
-      <c r="Y45" s="183" t="s">
-        <v>947</v>
-      </c>
-      <c r="Z45" s="183" t="s">
-        <v>947</v>
-      </c>
-      <c r="AA45" s="183" t="s">
-        <v>947</v>
-      </c>
-      <c r="AB45" s="183" t="b">
+        <v>2068</v>
+      </c>
+      <c r="X45" s="181" t="s">
+        <v>947</v>
+      </c>
+      <c r="Y45" s="181" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z45" s="181" t="s">
+        <v>947</v>
+      </c>
+      <c r="AA45" s="181" t="s">
+        <v>947</v>
+      </c>
+      <c r="AB45" s="181" t="b">
         <v>1</v>
       </c>
-      <c r="AC45" s="183" t="s">
-        <v>947</v>
-      </c>
-      <c r="AD45" s="183" t="s">
-        <v>947</v>
-      </c>
-      <c r="AE45" s="183" t="s">
+      <c r="AC45" s="181" t="s">
+        <v>947</v>
+      </c>
+      <c r="AD45" s="181" t="s">
+        <v>947</v>
+      </c>
+      <c r="AE45" s="181" t="s">
         <v>947</v>
       </c>
       <c r="AF45" s="132" t="s">
@@ -15317,13 +15308,13 @@
     </row>
     <row r="46" spans="1:32" ht="15.75">
       <c r="A46" s="130" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B46" s="130">
         <v>57</v>
       </c>
       <c r="C46" s="130" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D46" s="130" t="s">
         <v>1339</v>
@@ -15411,13 +15402,13 @@
     </row>
     <row r="47" spans="1:32" ht="141.75">
       <c r="A47" s="130" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B47" s="130">
         <v>58</v>
       </c>
       <c r="C47" s="130" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D47" s="130" t="s">
         <v>1339</v>
@@ -15474,7 +15465,7 @@
         <v>1963</v>
       </c>
       <c r="V47" s="132" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="W47" s="130" t="s">
         <v>2010</v>
@@ -15509,13 +15500,13 @@
     </row>
     <row r="48" spans="1:32" ht="189">
       <c r="A48" s="130" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B48" s="130">
         <v>59</v>
       </c>
       <c r="C48" s="130" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D48" s="130" t="s">
         <v>1339</v>
@@ -15572,7 +15563,7 @@
         <v>1963</v>
       </c>
       <c r="V48" s="132" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="W48" s="130" t="s">
         <v>2010</v>
@@ -15607,13 +15598,13 @@
     </row>
     <row r="49" spans="1:32" ht="236.25">
       <c r="A49" s="130" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B49" s="130">
         <v>60</v>
       </c>
       <c r="C49" s="130" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D49" s="130" t="s">
         <v>1339</v>
@@ -15705,13 +15696,13 @@
     </row>
     <row r="50" spans="1:32" ht="330.75">
       <c r="A50" s="130" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B50" s="130">
         <v>61</v>
       </c>
       <c r="C50" s="130" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D50" s="130" t="s">
         <v>1339</v>
@@ -15803,13 +15794,13 @@
     </row>
     <row r="51" spans="1:32" ht="220.5">
       <c r="A51" s="130" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B51" s="130">
         <v>62</v>
       </c>
       <c r="C51" s="130" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D51" s="130" t="s">
         <v>1339</v>
@@ -15901,7 +15892,7 @@
     </row>
     <row r="52" spans="1:32" ht="78.75" hidden="1">
       <c r="A52" s="130" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B52" s="130">
         <v>30</v>
@@ -15999,13 +15990,13 @@
     </row>
     <row r="53" spans="1:32" ht="78.75" hidden="1">
       <c r="A53" s="130" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B53" s="130">
         <v>30</v>
       </c>
       <c r="C53" s="130" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D53" s="130" t="s">
         <v>1335</v>
@@ -16097,7 +16088,7 @@
     </row>
     <row r="54" spans="1:32" ht="126" hidden="1">
       <c r="A54" s="130" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B54" s="130">
         <v>31</v>
@@ -16195,7 +16186,7 @@
     </row>
     <row r="55" spans="1:32" ht="126" hidden="1">
       <c r="A55" s="130" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B55" s="130">
         <v>28</v>
@@ -16293,13 +16284,13 @@
     </row>
     <row r="56" spans="1:32" ht="78.75" hidden="1">
       <c r="A56" s="130" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B56" s="130">
         <v>42</v>
       </c>
       <c r="C56" s="130" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D56" s="130" t="s">
         <v>1335</v>
@@ -16389,13 +16380,13 @@
     </row>
     <row r="57" spans="1:32" ht="126" hidden="1">
       <c r="A57" s="130" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B57" s="130">
         <v>43</v>
       </c>
       <c r="C57" s="130" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D57" s="130" t="s">
         <v>1335</v>
@@ -16487,7 +16478,7 @@
     </row>
     <row r="58" spans="1:32" ht="157.5" hidden="1">
       <c r="A58" s="130" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B58" s="130">
         <v>26</v>
@@ -16585,7 +16576,7 @@
     </row>
     <row r="59" spans="1:32" ht="126" hidden="1">
       <c r="A59" s="130" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B59" s="130">
         <v>40</v>
@@ -16683,7 +16674,7 @@
     </row>
     <row r="60" spans="1:32" ht="126" hidden="1">
       <c r="A60" s="130" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B60" s="130">
         <v>41</v>
@@ -16781,7 +16772,7 @@
     </row>
     <row r="61" spans="1:32" ht="78.75" hidden="1">
       <c r="A61" s="130" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B61" s="130">
         <v>25</v>
@@ -16879,13 +16870,13 @@
     </row>
     <row r="62" spans="1:32" ht="78.75" hidden="1">
       <c r="A62" s="130" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B62" s="130">
         <v>14</v>
       </c>
       <c r="C62" s="130" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D62" s="130" t="s">
         <v>1334</v>
@@ -16977,7 +16968,7 @@
     </row>
     <row r="63" spans="1:32" ht="15.75" hidden="1">
       <c r="A63" s="130" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B63" s="130">
         <v>1</v>
@@ -18512,7 +18503,7 @@
         <v>1319</v>
       </c>
       <c r="E1" s="106" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="F1" s="106" t="s">
         <v>1779</v>
@@ -20290,7 +20281,7 @@
         <v>1910</v>
       </c>
       <c r="B73" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="C73" t="s">
         <v>1371</v>
@@ -20299,7 +20290,7 @@
         <v>1370</v>
       </c>
       <c r="F73" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="G73" t="s">
         <v>1830</v>
@@ -20314,7 +20305,7 @@
         <v>1910</v>
       </c>
       <c r="B74" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="C74" t="s">
         <v>1375</v>
@@ -20323,7 +20314,7 @@
         <v>1374</v>
       </c>
       <c r="F74" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="G74" t="s">
         <v>1828</v>
@@ -20338,7 +20329,7 @@
         <v>1910</v>
       </c>
       <c r="B75" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="C75" t="s">
         <v>1373</v>
@@ -20347,7 +20338,7 @@
         <v>1372</v>
       </c>
       <c r="F75" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="G75" t="s">
         <v>1829</v>
@@ -20362,7 +20353,7 @@
         <v>1910</v>
       </c>
       <c r="B76" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="C76" t="s">
         <v>1368</v>
@@ -20371,7 +20362,7 @@
         <v>1350</v>
       </c>
       <c r="F76" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="G76" t="s">
         <v>1832</v>
@@ -22134,22 +22125,22 @@
   <sheetData>
     <row r="1" spans="1:23" s="106" customFormat="1" ht="15">
       <c r="A1" s="106" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B1" s="163" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="C1" s="163" t="s">
         <v>1775</v>
       </c>
       <c r="D1" s="160" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E1" s="160" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="F1" s="160" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G1" s="160" t="s">
         <v>1774</v>
@@ -22158,46 +22149,46 @@
         <v>1325</v>
       </c>
       <c r="I1" s="161" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="J1" s="161" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="K1" s="160" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="L1" s="160" t="s">
+        <v>2297</v>
+      </c>
+      <c r="M1" s="160" t="s">
+        <v>2271</v>
+      </c>
+      <c r="N1" s="105" t="s">
+        <v>2270</v>
+      </c>
+      <c r="O1" s="160" t="s">
+        <v>2269</v>
+      </c>
+      <c r="P1" s="160" t="s">
+        <v>2268</v>
+      </c>
+      <c r="Q1" s="161" t="s">
+        <v>2267</v>
+      </c>
+      <c r="R1" s="161" t="s">
+        <v>2265</v>
+      </c>
+      <c r="S1" s="164" t="s">
         <v>2298</v>
       </c>
-      <c r="M1" s="160" t="s">
-        <v>2272</v>
-      </c>
-      <c r="N1" s="105" t="s">
-        <v>2271</v>
-      </c>
-      <c r="O1" s="160" t="s">
-        <v>2270</v>
-      </c>
-      <c r="P1" s="160" t="s">
-        <v>2269</v>
-      </c>
-      <c r="Q1" s="161" t="s">
-        <v>2268</v>
-      </c>
-      <c r="R1" s="161" t="s">
-        <v>2266</v>
-      </c>
-      <c r="S1" s="164" t="s">
-        <v>2299</v>
-      </c>
       <c r="T1" s="161" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="U1" s="160" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="V1" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W1" s="106" t="s">
         <v>1128</v>
@@ -22211,16 +22202,16 @@
         <v>429</v>
       </c>
       <c r="C2" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D2" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E2" t="s">
         <v>1335</v>
       </c>
       <c r="F2" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G2" t="s">
         <v>947</v>
@@ -22229,7 +22220,7 @@
         <v>447</v>
       </c>
       <c r="I2" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="J2" t="s">
         <v>447</v>
@@ -22242,7 +22233,7 @@
         <v>447</v>
       </c>
       <c r="M2" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="N2" t="s">
         <v>947</v>
@@ -22265,17 +22256,17 @@
         <v>29</v>
       </c>
       <c r="T2" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U2" t="str">
         <f t="shared" ref="U2:U14" si="3">T2&amp;K2&amp;"](/02_dialog-boxes/"&amp;I2&amp;".html)&lt;br&gt;"</f>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_3ormore_cat_ids }}](/02_dialog-boxes/01_25_3ormore_cat_ids.html)&lt;br&gt;</v>
       </c>
       <c r="V2" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W2" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75">
@@ -22286,16 +22277,16 @@
         <v>429</v>
       </c>
       <c r="C3" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D3" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E3" t="s">
         <v>1335</v>
       </c>
       <c r="F3" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G3" t="s">
         <v>947</v>
@@ -22304,7 +22295,7 @@
         <v>448</v>
       </c>
       <c r="I3" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="J3" t="s">
         <v>448</v>
@@ -22317,7 +22308,7 @@
         <v>448</v>
       </c>
       <c r="M3" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="N3" t="s">
         <v>947</v>
@@ -22340,17 +22331,17 @@
         <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U3" t="str">
         <f t="shared" si="3"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_aux_count_possible }}](/02_dialog-boxes/01_27_aux_count_possible.html)&lt;br&gt;</v>
       </c>
       <c r="V3" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W3" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75">
@@ -22361,16 +22352,16 @@
         <v>429</v>
       </c>
       <c r="C4" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D4" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E4" t="s">
         <v>1335</v>
       </c>
       <c r="F4" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G4" t="s">
         <v>947</v>
@@ -22379,7 +22370,7 @@
         <v>449</v>
       </c>
       <c r="I4" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="J4" t="s">
         <v>449</v>
@@ -22392,7 +22383,7 @@
         <v>449</v>
       </c>
       <c r="M4" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="N4" t="s">
         <v>947</v>
@@ -22415,17 +22406,17 @@
         <v>30</v>
       </c>
       <c r="T4" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U4" t="str">
         <f t="shared" si="3"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_auxillary_info }}](/02_dialog-boxes/01_26_auxillary_info.html)&lt;br&gt;</v>
       </c>
       <c r="V4" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W4" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75">
@@ -22436,16 +22427,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D5" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E5" t="s">
         <v>1338</v>
       </c>
       <c r="F5" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="G5" t="s">
         <v>947</v>
@@ -22454,7 +22445,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="J5" t="s">
         <v>2</v>
@@ -22467,7 +22458,7 @@
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="N5" t="s">
         <v>947</v>
@@ -22490,17 +22481,17 @@
         <v>44</v>
       </c>
       <c r="T5" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" si="3"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_bait_lure }}](/02_dialog-boxes/01_43_bait_lure.html)&lt;br&gt;</v>
       </c>
       <c r="V5" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W5" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75">
@@ -22511,16 +22502,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D6" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E6" t="s">
         <v>1338</v>
       </c>
       <c r="F6" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="G6" t="s">
         <v>947</v>
@@ -22529,7 +22520,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="J6" t="s">
         <v>2</v>
@@ -22542,13 +22533,13 @@
         <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="N6" t="s">
         <v>947</v>
       </c>
       <c r="O6" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="1"/>
@@ -22565,17 +22556,17 @@
         <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="3"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_bait_lure }}](/02_dialog-boxes/01_43_bait_lure.html)&lt;br&gt;</v>
       </c>
       <c r="V6" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W6" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75">
@@ -22586,16 +22577,16 @@
         <v>429</v>
       </c>
       <c r="C7" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>1336</v>
       </c>
       <c r="F7" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="G7" t="s">
         <v>947</v>
@@ -22604,7 +22595,7 @@
         <v>450</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="J7" t="s">
         <v>450</v>
@@ -22617,7 +22608,7 @@
         <v>450</v>
       </c>
       <c r="M7" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="N7" t="s">
         <v>947</v>
@@ -22640,17 +22631,17 @@
         <v>7</v>
       </c>
       <c r="T7" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_cam_dens_gradient }}](/02_dialog-boxes/01_05_cam_dens_gradient.html)&lt;br&gt;</v>
       </c>
       <c r="V7" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W7" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75">
@@ -22661,16 +22652,16 @@
         <v>429</v>
       </c>
       <c r="C8" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D8" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E8" t="s">
         <v>1338</v>
       </c>
       <c r="F8" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="G8" t="s">
         <v>947</v>
@@ -22679,7 +22670,7 @@
         <v>451</v>
       </c>
       <c r="I8" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="J8" t="s">
         <v>451</v>
@@ -22692,7 +22683,7 @@
         <v>451</v>
       </c>
       <c r="M8" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="N8" t="s">
         <v>947</v>
@@ -22715,14 +22706,14 @@
         <v>43</v>
       </c>
       <c r="T8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_cam_direction_ds }}](/02_dialog-boxes/01_42_cam_direction_ds.html)&lt;br&gt;</v>
       </c>
       <c r="V8" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W8" t="e">
         <v>#N/A</v>
@@ -22736,16 +22727,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D9" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E9" t="s">
         <v>1338</v>
       </c>
       <c r="F9" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="G9" t="s">
         <v>947</v>
@@ -22754,7 +22745,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="J9" t="s">
         <v>1632</v>
@@ -22767,7 +22758,7 @@
         <v>1632</v>
       </c>
       <c r="M9" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="N9" t="s">
         <v>947</v>
@@ -22790,17 +22781,17 @@
         <v>41</v>
       </c>
       <c r="T9" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="3"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_cam_equipment }}](/02_dialog-boxes/01_39_cam_equipment.html)&lt;br&gt;</v>
       </c>
       <c r="V9" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W9" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75">
@@ -22811,16 +22802,16 @@
         <v>429</v>
       </c>
       <c r="C10" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>1336</v>
       </c>
       <c r="F10" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="G10" t="s">
         <v>947</v>
@@ -22829,7 +22820,7 @@
         <v>452</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="J10" t="s">
         <v>452</v>
@@ -22842,7 +22833,7 @@
         <v>452</v>
       </c>
       <c r="M10" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="N10" t="s">
         <v>947</v>
@@ -22865,17 +22856,17 @@
         <v>9</v>
       </c>
       <c r="T10" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="3"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_cam_high_dens }}](/02_dialog-boxes/01_07_cam_high_dens.html)&lt;br&gt;</v>
       </c>
       <c r="V10" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W10" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75">
@@ -22886,10 +22877,10 @@
         <v>428</v>
       </c>
       <c r="C11" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D11" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E11" t="s">
         <v>1339</v>
@@ -22904,7 +22895,7 @@
         <v>439</v>
       </c>
       <c r="I11" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="J11" t="s">
         <v>439</v>
@@ -22917,7 +22908,7 @@
         <v>439</v>
       </c>
       <c r="M11" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="N11" t="s">
         <v>947</v>
@@ -22940,17 +22931,17 @@
         <v>47</v>
       </c>
       <c r="T11" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_cam_independent }}](/02_dialog-boxes/01_47_cam_independent.html)&lt;br&gt;</v>
       </c>
       <c r="V11" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W11" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75">
@@ -22961,16 +22952,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D12" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E12" t="s">
         <v>1338</v>
       </c>
       <c r="F12" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="G12" t="s">
         <v>947</v>
@@ -22979,20 +22970,20 @@
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="J12" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>{{ title_i_cam_placement }}</v>
       </c>
       <c r="L12" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="M12" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="N12" t="s">
         <v>947</v>
@@ -23015,17 +23006,17 @@
         <v>43</v>
       </c>
       <c r="T12" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="3"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_cam_placement }}](/02_dialog-boxes/01_41_cam_placement.html)&lt;br&gt;</v>
       </c>
       <c r="V12" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W12" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75">
@@ -23036,16 +23027,16 @@
         <v>0</v>
       </c>
       <c r="C13" s="170" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D13" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E13" t="s">
         <v>1338</v>
       </c>
       <c r="F13" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="G13" t="s">
         <v>947</v>
@@ -23054,20 +23045,20 @@
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="J13" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>{{ title_i_cam_settings }}</v>
       </c>
       <c r="L13" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="M13" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="N13" t="s">
         <v>947</v>
@@ -23090,17 +23081,17 @@
         <v>42</v>
       </c>
       <c r="T13" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="3"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_cam_settings }}](/02_dialog-boxes/01_40_cam_settings.html)&lt;br&gt;</v>
       </c>
       <c r="V13" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W13" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75">
@@ -23111,16 +23102,16 @@
         <v>428</v>
       </c>
       <c r="C14" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>1336</v>
       </c>
       <c r="F14" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="G14" t="s">
         <v>947</v>
@@ -23129,7 +23120,7 @@
         <v>11</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -23142,7 +23133,7 @@
         <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N14" t="s">
         <v>947</v>
@@ -23165,17 +23156,17 @@
         <v>8</v>
       </c>
       <c r="T14" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="3"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_cam_strat_covar }}](/02_dialog-boxes/01_06_cam_strat_covar.html)&lt;br&gt;</v>
       </c>
       <c r="V14" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W14" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15">
@@ -23186,7 +23177,7 @@
         <v>947</v>
       </c>
       <c r="C15" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D15" t="s">
         <v>947</v>
@@ -23213,7 +23204,7 @@
         <v>947</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>1339</v>
@@ -23231,7 +23222,7 @@
         <v>46</v>
       </c>
       <c r="V15" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W15" t="e">
         <v>#N/A</v>
@@ -23242,35 +23233,35 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D16" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E16" t="s">
         <v>500</v>
       </c>
       <c r="F16" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="153" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I16" t="s">
         <v>2144</v>
       </c>
-      <c r="I16" t="s">
-        <v>2145</v>
-      </c>
       <c r="J16" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" ref="K16:K31" si="4">"{{ title_i_"&amp;J16&amp;" }}"</f>
         <v>{{ title_i_design_cam_arrange }}</v>
       </c>
       <c r="L16" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>32</v>
@@ -23296,14 +23287,14 @@
         <v>#N/A</v>
       </c>
       <c r="T16" s="103" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U16" t="str">
         <f t="shared" ref="U16:U31" si="7">T16&amp;K16&amp;"](/02_dialog-boxes/"&amp;I16&amp;".html)&lt;br&gt;"</f>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_design_cam_arrange }}](/02_dialog-boxes/02_02_00_design_cam_arrange.html)&lt;br&gt;</v>
       </c>
       <c r="V16" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W16" t="e">
         <v>#N/A</v>
@@ -23314,38 +23305,38 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D17" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E17" t="s">
         <v>500</v>
       </c>
       <c r="F17" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="151" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I17" t="s">
         <v>2142</v>
       </c>
-      <c r="I17" t="s">
-        <v>2143</v>
-      </c>
       <c r="J17" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_cam_arrange_convenience }}</v>
       </c>
       <c r="L17" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="M17" s="152" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="N17" t="s">
         <v>947</v>
@@ -23368,14 +23359,14 @@
         <v>#N/A</v>
       </c>
       <c r="T17" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_design_cam_arrange_convenience }}](/02_dialog-boxes/02_02_09_design_cam_arrange_convenience.html)&lt;br&gt;</v>
       </c>
       <c r="V17" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W17" t="e">
         <v>#N/A</v>
@@ -23386,38 +23377,38 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D18" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E18" t="s">
         <v>500</v>
       </c>
       <c r="F18" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="151" t="s">
+        <v>2138</v>
+      </c>
+      <c r="I18" t="s">
         <v>2139</v>
       </c>
-      <c r="I18" t="s">
-        <v>2140</v>
-      </c>
       <c r="J18" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_cam_arrange_paired }}</v>
       </c>
       <c r="L18" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="M18" s="152" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="N18" t="s">
         <v>947</v>
@@ -23440,14 +23431,14 @@
         <v>#N/A</v>
       </c>
       <c r="T18" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_design_cam_arrange_paired }}](/02_dialog-boxes/02_02_07_design_cam_arrange_paired.html)&lt;br&gt;</v>
       </c>
       <c r="V18" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W18" t="e">
         <v>#N/A</v>
@@ -23458,38 +23449,38 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D19" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E19" t="s">
         <v>500</v>
       </c>
       <c r="F19" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H19" s="151" t="s">
+        <v>2135</v>
+      </c>
+      <c r="I19" t="s">
         <v>2136</v>
       </c>
-      <c r="I19" t="s">
-        <v>2137</v>
-      </c>
       <c r="J19" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_cam_arrange_random }}</v>
       </c>
       <c r="L19" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="M19" s="152" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="N19" t="s">
         <v>947</v>
@@ -23512,14 +23503,14 @@
         <v>#N/A</v>
       </c>
       <c r="T19" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_design_cam_arrange_random }}](/02_dialog-boxes/02_02_01_design_cam_arrange_random.html)&lt;br&gt;</v>
       </c>
       <c r="V19" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W19" t="e">
         <v>#N/A</v>
@@ -23530,38 +23521,38 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D20" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E20" t="s">
         <v>500</v>
       </c>
       <c r="F20" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="151" t="s">
+        <v>2132</v>
+      </c>
+      <c r="I20" t="s">
         <v>2133</v>
       </c>
-      <c r="I20" t="s">
-        <v>2134</v>
-      </c>
       <c r="J20" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_cam_arrange_stratified }}</v>
       </c>
       <c r="L20" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="M20" s="152" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="N20" t="s">
         <v>947</v>
@@ -23584,14 +23575,14 @@
         <v>#N/A</v>
       </c>
       <c r="T20" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_design_cam_arrange_stratified }}](/02_dialog-boxes/02_02_04_design_cam_arrange_stratified.html)&lt;br&gt;</v>
       </c>
       <c r="V20" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W20" t="e">
         <v>#N/A</v>
@@ -23602,38 +23593,38 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D21" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E21" t="s">
         <v>500</v>
       </c>
       <c r="F21" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="151" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I21" t="s">
         <v>2130</v>
       </c>
-      <c r="I21" t="s">
-        <v>2131</v>
-      </c>
       <c r="J21" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_cam_arrange_stratified_random }}</v>
       </c>
       <c r="L21" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="M21" s="152" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="N21" t="s">
         <v>947</v>
@@ -23656,14 +23647,14 @@
         <v>#N/A</v>
       </c>
       <c r="T21" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_design_cam_arrange_stratified_random }}](/02_dialog-boxes/02_02_05_design_cam_arrange_stratified_random.html)&lt;br&gt;</v>
       </c>
       <c r="V21" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W21" t="e">
         <v>#N/A</v>
@@ -23674,38 +23665,38 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D22" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E22" t="s">
         <v>500</v>
       </c>
       <c r="F22" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="151" t="s">
+        <v>2126</v>
+      </c>
+      <c r="I22" t="s">
         <v>2127</v>
       </c>
-      <c r="I22" t="s">
-        <v>2128</v>
-      </c>
       <c r="J22" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_cam_arrange_systematic }}</v>
       </c>
       <c r="L22" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="M22" s="152" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="N22" t="s">
         <v>947</v>
@@ -23728,14 +23719,14 @@
         <v>#N/A</v>
       </c>
       <c r="T22" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_design_cam_arrange_systematic }}](/02_dialog-boxes/02_02_02_design_cam_arrange_systematic.html)&lt;br&gt;</v>
       </c>
       <c r="V22" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W22" t="e">
         <v>#N/A</v>
@@ -23746,38 +23737,38 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D23" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E23" t="s">
         <v>500</v>
       </c>
       <c r="F23" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H23" s="151" t="s">
+        <v>2123</v>
+      </c>
+      <c r="I23" t="s">
         <v>2124</v>
       </c>
-      <c r="I23" t="s">
-        <v>2125</v>
-      </c>
       <c r="J23" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_cam_arrange_systematic_random }}</v>
       </c>
       <c r="L23" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="M23" s="152" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="N23" t="s">
         <v>947</v>
@@ -23800,14 +23791,14 @@
         <v>#N/A</v>
       </c>
       <c r="T23" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_design_cam_arrange_systematic_random }}](/02_dialog-boxes/02_02_03_design_cam_arrange_systematic_random.html)&lt;br&gt;</v>
       </c>
       <c r="V23" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W23" t="e">
         <v>#N/A</v>
@@ -23818,38 +23809,38 @@
         <v>0</v>
       </c>
       <c r="C24" s="148" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D24" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E24" t="s">
         <v>500</v>
       </c>
       <c r="F24" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H24" s="151" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I24" t="s">
         <v>2121</v>
       </c>
-      <c r="I24" t="s">
-        <v>2122</v>
-      </c>
       <c r="J24" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_cam_arrange_targeted }}</v>
       </c>
       <c r="L24" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="M24" s="152" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="N24" t="s">
         <v>947</v>
@@ -23872,14 +23863,14 @@
         <v>#N/A</v>
       </c>
       <c r="T24" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_design_cam_arrange_targeted }}](/02_dialog-boxes/02_02_08_design_cam_arrange_targeted.html)&lt;br&gt;</v>
       </c>
       <c r="V24" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W24" t="e">
         <v>#N/A</v>
@@ -23890,35 +23881,35 @@
         <v>0</v>
       </c>
       <c r="C25" s="148" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D25" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E25" t="s">
         <v>500</v>
       </c>
       <c r="F25" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>113</v>
       </c>
       <c r="H25" t="s">
+        <v>2117</v>
+      </c>
+      <c r="I25" t="s">
         <v>2118</v>
       </c>
-      <c r="I25" t="s">
-        <v>2119</v>
-      </c>
       <c r="J25" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_cam_days_ttl }}</v>
       </c>
       <c r="L25" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>114</v>
@@ -23944,14 +23935,14 @@
         <v>#N/A</v>
       </c>
       <c r="T25" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_design_cam_days_ttl }}](/02_dialog-boxes/02_06_design_cam_days_ttl.html)&lt;br&gt;</v>
       </c>
       <c r="V25" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W25" t="e">
         <v>#N/A</v>
@@ -23962,35 +23953,35 @@
         <v>0</v>
       </c>
       <c r="C26" s="148" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D26" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E26" t="s">
         <v>500</v>
       </c>
       <c r="F26" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>116</v>
       </c>
       <c r="H26" t="s">
+        <v>2115</v>
+      </c>
+      <c r="I26" t="s">
         <v>2116</v>
       </c>
-      <c r="I26" t="s">
-        <v>2117</v>
-      </c>
       <c r="J26" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_cam_spacing }}</v>
       </c>
       <c r="L26" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>117</v>
@@ -24016,14 +24007,14 @@
         <v>#N/A</v>
       </c>
       <c r="T26" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_design_cam_spacing }}](/02_dialog-boxes/02_03_design_cam_spacing.html)&lt;br&gt;</v>
       </c>
       <c r="V26" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W26" t="e">
         <v>#N/A</v>
@@ -24034,35 +24025,35 @@
         <v>0</v>
       </c>
       <c r="C27" s="148" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D27" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E27" t="s">
         <v>500</v>
       </c>
       <c r="F27" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>115</v>
       </c>
       <c r="H27" t="s">
+        <v>2113</v>
+      </c>
+      <c r="I27" t="s">
         <v>2114</v>
       </c>
-      <c r="I27" t="s">
-        <v>2115</v>
-      </c>
       <c r="J27" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_camdays_per_loc }}</v>
       </c>
       <c r="L27" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>499</v>
@@ -24088,14 +24079,14 @@
         <v>#N/A</v>
       </c>
       <c r="T27" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_design_camdays_per_loc }}](/02_dialog-boxes/02_05_design_camdays_per_loc.html)&lt;br&gt;</v>
       </c>
       <c r="V27" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W27" t="e">
         <v>#N/A</v>
@@ -24106,38 +24097,38 @@
         <v>0</v>
       </c>
       <c r="C28" s="148" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D28" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E28" t="s">
         <v>500</v>
       </c>
       <c r="F28" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H28" s="151" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="I28" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="J28" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_clustered }}</v>
       </c>
       <c r="L28" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="M28" s="150" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="N28" t="s">
         <v>947</v>
@@ -24160,14 +24151,14 @@
         <v>#N/A</v>
       </c>
       <c r="T28" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_design_clustered }}](/02_dialog-boxes/02_02_06_design_clustered.html)&lt;br&gt;</v>
       </c>
       <c r="V28" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W28" t="e">
         <v>#N/A</v>
@@ -24178,35 +24169,35 @@
         <v>0</v>
       </c>
       <c r="C29" s="148" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D29" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E29" t="s">
         <v>500</v>
       </c>
       <c r="F29" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>108</v>
       </c>
       <c r="H29" t="s">
+        <v>2107</v>
+      </c>
+      <c r="I29" t="s">
         <v>2108</v>
       </c>
-      <c r="I29" t="s">
-        <v>2109</v>
-      </c>
       <c r="J29" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_num_cams }}</v>
       </c>
       <c r="L29" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>109</v>
@@ -24232,14 +24223,14 @@
         <v>#N/A</v>
       </c>
       <c r="T29" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_design_num_cams }}](/02_dialog-boxes/02_04_design_num_cams.html)&lt;br&gt;</v>
       </c>
       <c r="V29" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W29" t="e">
         <v>#N/A</v>
@@ -24250,38 +24241,38 @@
         <v>0</v>
       </c>
       <c r="C30" s="148" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D30" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E30" t="s">
         <v>500</v>
       </c>
       <c r="F30" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G30" t="s">
         <v>947</v>
       </c>
       <c r="H30" s="149" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I30" t="s">
         <v>2106</v>
       </c>
-      <c r="I30" t="s">
-        <v>2107</v>
-      </c>
       <c r="J30" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_study_area }}</v>
       </c>
       <c r="L30" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="M30" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="N30" t="s">
         <v>947</v>
@@ -24304,14 +24295,14 @@
         <v>#N/A</v>
       </c>
       <c r="T30" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U30" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_design_study_area }}](/02_dialog-boxes/02_01_design_study_area.html)&lt;br&gt;</v>
       </c>
       <c r="V30" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W30" t="e">
         <v>#N/A</v>
@@ -24323,35 +24314,35 @@
         <v>0</v>
       </c>
       <c r="C31" s="148" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D31" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E31" t="s">
         <v>500</v>
       </c>
       <c r="F31" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>120</v>
       </c>
       <c r="H31" t="s">
+        <v>2100</v>
+      </c>
+      <c r="I31" t="s">
         <v>2101</v>
       </c>
-      <c r="I31" t="s">
-        <v>2102</v>
-      </c>
       <c r="J31" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="4"/>
         <v>{{ title_i_design_survey_duration }}</v>
       </c>
       <c r="L31" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>121</v>
@@ -24377,14 +24368,14 @@
         <v>#N/A</v>
       </c>
       <c r="T31" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U31" t="str">
         <f t="shared" si="7"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_design_survey_duration }}](/02_dialog-boxes/02_07_design_survey_duration.html)&lt;br&gt;</v>
       </c>
       <c r="V31" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W31" t="e">
         <v>#N/A</v>
@@ -24398,7 +24389,7 @@
         <v>947</v>
       </c>
       <c r="C32" s="148" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D32" t="s">
         <v>947</v>
@@ -24425,7 +24416,7 @@
         <v>947</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="M32" s="12" t="s">
         <v>1334</v>
@@ -24443,7 +24434,7 @@
         <v>10</v>
       </c>
       <c r="V32" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W32" t="e">
         <v>#N/A</v>
@@ -24457,16 +24448,16 @@
         <v>429</v>
       </c>
       <c r="C33" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D33" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E33" t="s">
         <v>1335</v>
       </c>
       <c r="F33" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G33" t="s">
         <v>947</v>
@@ -24475,7 +24466,7 @@
         <v>453</v>
       </c>
       <c r="I33" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="J33" t="s">
         <v>453</v>
@@ -24488,7 +24479,7 @@
         <v>453</v>
       </c>
       <c r="M33" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="N33" t="s">
         <v>947</v>
@@ -24511,17 +24502,17 @@
         <v>32</v>
       </c>
       <c r="T33" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U33" t="str">
         <f>T33&amp;K33&amp;"](/02_dialog-boxes/"&amp;I33&amp;".html)&lt;br&gt;"</f>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_focalarea_calc }}](/02_dialog-boxes/01_28_focalarea_calc.html)&lt;br&gt;</v>
       </c>
       <c r="V33" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W33" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="15">
@@ -24550,7 +24541,7 @@
         <v>947</v>
       </c>
       <c r="I34" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="J34" t="s">
         <v>947</v>
@@ -24559,7 +24550,7 @@
         <v>947</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="M34" s="12" t="s">
         <v>1653</v>
@@ -24577,10 +24568,10 @@
         <v>78</v>
       </c>
       <c r="V34" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W34" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75">
@@ -24591,16 +24582,16 @@
         <v>429</v>
       </c>
       <c r="C35" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D35" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E35" t="s">
         <v>1335</v>
       </c>
       <c r="F35" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G35" t="s">
         <v>947</v>
@@ -24609,7 +24600,7 @@
         <v>454</v>
       </c>
       <c r="I35" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="J35" t="s">
         <v>454</v>
@@ -24622,7 +24613,7 @@
         <v>454</v>
       </c>
       <c r="M35" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="N35" t="s">
         <v>947</v>
@@ -24645,17 +24636,17 @@
         <v>28</v>
       </c>
       <c r="T35" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U35" t="str">
         <f t="shared" ref="U35:U67" si="11">T35&amp;K35&amp;"](/02_dialog-boxes/"&amp;I35&amp;".html)&lt;br&gt;"</f>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_marking_allsub }}](/02_dialog-boxes/01_24_marking_allsub.html)&lt;br&gt;</v>
       </c>
       <c r="V35" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W35" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75">
@@ -24666,16 +24657,16 @@
         <v>429</v>
       </c>
       <c r="C36" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D36" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E36" t="s">
         <v>1335</v>
       </c>
       <c r="F36" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G36" t="s">
         <v>947</v>
@@ -24684,7 +24675,7 @@
         <v>455</v>
       </c>
       <c r="I36" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="J36" t="s">
         <v>455</v>
@@ -24697,7 +24688,7 @@
         <v>455</v>
       </c>
       <c r="M36" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="N36" t="s">
         <v>947</v>
@@ -24720,17 +24711,17 @@
         <v>27</v>
       </c>
       <c r="T36" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_marking_code }}](/02_dialog-boxes/01_23_marking_code.html)&lt;br&gt;</v>
       </c>
       <c r="V36" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W36" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15">
@@ -24744,13 +24735,13 @@
         <v>395</v>
       </c>
       <c r="D37" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E37" t="s">
         <v>500</v>
       </c>
       <c r="F37" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G37" t="s">
         <v>947</v>
@@ -24759,7 +24750,7 @@
         <v>70</v>
       </c>
       <c r="I37" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="J37" t="s">
         <v>70</v>
@@ -24795,17 +24786,17 @@
         <v>66</v>
       </c>
       <c r="T37" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_2flankspim }}](/02_dialog-boxes/03_16_mod_2flankspim.html)&lt;br&gt;</v>
       </c>
       <c r="V37" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W37" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15">
@@ -24819,13 +24810,13 @@
         <v>395</v>
       </c>
       <c r="D38" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E38" t="s">
         <v>500</v>
       </c>
       <c r="F38" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G38" t="s">
         <v>947</v>
@@ -24834,7 +24825,7 @@
         <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="J38" t="s">
         <v>33</v>
@@ -24870,17 +24861,17 @@
         <v>74</v>
       </c>
       <c r="T38" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_behaviour }}](/02_dialog-boxes/03_24_mod_behaviour.html)&lt;br&gt;</v>
       </c>
       <c r="V38" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W38" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15">
@@ -24894,13 +24885,13 @@
         <v>395</v>
       </c>
       <c r="D39" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E39" t="s">
         <v>500</v>
       </c>
       <c r="F39" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G39" t="s">
         <v>947</v>
@@ -24909,7 +24900,7 @@
         <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="J39" t="s">
         <v>57</v>
@@ -24945,17 +24936,17 @@
         <v>65</v>
       </c>
       <c r="T39" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_catspim }}](/02_dialog-boxes/03_15_mod_catspim.html)&lt;br&gt;</v>
       </c>
       <c r="V39" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W39" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15">
@@ -24969,13 +24960,13 @@
         <v>395</v>
       </c>
       <c r="D40" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E40" t="s">
         <v>500</v>
       </c>
       <c r="F40" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G40" t="s">
         <v>947</v>
@@ -24984,7 +24975,7 @@
         <v>41</v>
       </c>
       <c r="I40" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
@@ -25020,17 +25011,17 @@
         <v>61</v>
       </c>
       <c r="T40" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U40" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_cr_cmr }}](/02_dialog-boxes/03_10_mod_cr_cmr.html)&lt;br&gt;</v>
       </c>
       <c r="V40" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W40" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15">
@@ -25044,13 +25035,13 @@
         <v>395</v>
       </c>
       <c r="D41" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E41" t="s">
         <v>500</v>
       </c>
       <c r="F41" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G41" t="s">
         <v>947</v>
@@ -25059,7 +25050,7 @@
         <v>79</v>
       </c>
       <c r="I41" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="J41" t="s">
         <v>79</v>
@@ -25095,17 +25086,17 @@
         <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U41" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_divers_rich }}](/02_dialog-boxes/03_02_mod_divers_rich.html)&lt;br&gt;</v>
       </c>
       <c r="V41" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W41" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15">
@@ -25119,13 +25110,13 @@
         <v>395</v>
       </c>
       <c r="D42" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E42" t="s">
         <v>500</v>
       </c>
       <c r="F42" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G42" t="s">
         <v>947</v>
@@ -25134,7 +25125,7 @@
         <v>44</v>
       </c>
       <c r="I42" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="J42" t="s">
         <v>44</v>
@@ -25170,17 +25161,17 @@
         <v>70</v>
       </c>
       <c r="T42" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U42" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_ds }}](/02_dialog-boxes/03_20_mod_ds.html)&lt;br&gt;</v>
       </c>
       <c r="V42" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W42" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15">
@@ -25194,13 +25185,13 @@
         <v>395</v>
       </c>
       <c r="D43" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E43" t="s">
         <v>500</v>
       </c>
       <c r="F43" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G43" t="s">
         <v>947</v>
@@ -25209,7 +25200,7 @@
         <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="J43" t="s">
         <v>38</v>
@@ -25245,17 +25236,17 @@
         <v>57</v>
       </c>
       <c r="T43" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_inventory }}](/02_dialog-boxes/03_01_mod_inventory.html)&lt;br&gt;</v>
       </c>
       <c r="V43" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W43" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="15">
@@ -25269,13 +25260,13 @@
         <v>395</v>
       </c>
       <c r="D44" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E44" t="s">
         <v>500</v>
       </c>
       <c r="F44" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G44" t="s">
         <v>947</v>
@@ -25284,7 +25275,7 @@
         <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="J44" t="s">
         <v>49</v>
@@ -25320,17 +25311,17 @@
         <v>73</v>
       </c>
       <c r="T44" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U44" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_is }}](/02_dialog-boxes/03_23_mod_is.html)&lt;br&gt;</v>
       </c>
       <c r="V44" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W44" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="15">
@@ -25344,13 +25335,13 @@
         <v>395</v>
       </c>
       <c r="D45" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E45" t="s">
         <v>500</v>
       </c>
       <c r="F45" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G45" t="s">
         <v>947</v>
@@ -25359,7 +25350,7 @@
         <v>36</v>
       </c>
       <c r="I45" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="J45" t="s">
         <v>36</v>
@@ -25372,7 +25363,7 @@
         <v>36</v>
       </c>
       <c r="M45" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="N45" t="s">
         <v>947</v>
@@ -25395,17 +25386,17 @@
         <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U45" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_occupancy }}](/02_dialog-boxes/03_03_mod_occupancy.html)&lt;br&gt;</v>
       </c>
       <c r="V45" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W45" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15">
@@ -25419,13 +25410,13 @@
         <v>395</v>
       </c>
       <c r="D46" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E46" t="s">
         <v>500</v>
       </c>
       <c r="F46" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G46" t="s">
         <v>947</v>
@@ -25434,7 +25425,7 @@
         <v>62</v>
       </c>
       <c r="I46" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="J46" t="s">
         <v>62</v>
@@ -25470,17 +25461,17 @@
         <v>60</v>
       </c>
       <c r="T46" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U46" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_rai }}](/02_dialog-boxes/03_04_mod_rai.html)&lt;br&gt;</v>
       </c>
       <c r="V46" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W46" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15">
@@ -25494,13 +25485,13 @@
         <v>395</v>
       </c>
       <c r="D47" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E47" t="s">
         <v>500</v>
       </c>
       <c r="F47" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G47" t="s">
         <v>947</v>
@@ -25509,7 +25500,7 @@
         <v>399</v>
       </c>
       <c r="I47" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="J47" t="s">
         <v>399</v>
@@ -25545,14 +25536,14 @@
         <v>#N/A</v>
       </c>
       <c r="T47" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_mod_rai_hurdle }}](/02_dialog-boxes/03_09_mod_rai_hurdle.html)&lt;br&gt;</v>
       </c>
       <c r="V47" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W47" t="e">
         <v>#N/A</v>
@@ -25569,13 +25560,13 @@
         <v>395</v>
       </c>
       <c r="D48" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E48" t="s">
         <v>500</v>
       </c>
       <c r="F48" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G48" t="s">
         <v>947</v>
@@ -25584,7 +25575,7 @@
         <v>410</v>
       </c>
       <c r="I48" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="J48" t="s">
         <v>410</v>
@@ -25620,14 +25611,14 @@
         <v>#N/A</v>
       </c>
       <c r="T48" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U48" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_mod_rai_nb }}](/02_dialog-boxes/03_07_mod_rai_nb.html)&lt;br&gt;</v>
       </c>
       <c r="V48" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W48" t="e">
         <v>#N/A</v>
@@ -25644,13 +25635,13 @@
         <v>395</v>
       </c>
       <c r="D49" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E49" t="s">
         <v>500</v>
       </c>
       <c r="F49" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G49" t="s">
         <v>947</v>
@@ -25659,7 +25650,7 @@
         <v>408</v>
       </c>
       <c r="I49" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="J49" t="s">
         <v>408</v>
@@ -25695,14 +25686,14 @@
         <v>#N/A</v>
       </c>
       <c r="T49" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U49" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_mod_rai_poisson }}](/02_dialog-boxes/03_05_mod_rai_poisson.html)&lt;br&gt;</v>
       </c>
       <c r="V49" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W49" t="e">
         <v>#N/A</v>
@@ -25719,13 +25710,13 @@
         <v>395</v>
       </c>
       <c r="D50" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E50" t="s">
         <v>500</v>
       </c>
       <c r="F50" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G50" t="s">
         <v>947</v>
@@ -25734,7 +25725,7 @@
         <v>406</v>
       </c>
       <c r="I50" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="J50" t="s">
         <v>406</v>
@@ -25770,14 +25761,14 @@
         <v>#N/A</v>
       </c>
       <c r="T50" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U50" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_mod_rai_zinb }}](/02_dialog-boxes/03_08_mod_rai_zinb.html)&lt;br&gt;</v>
       </c>
       <c r="V50" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W50" t="e">
         <v>#N/A</v>
@@ -25794,13 +25785,13 @@
         <v>395</v>
       </c>
       <c r="D51" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E51" t="s">
         <v>500</v>
       </c>
       <c r="F51" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G51" t="s">
         <v>947</v>
@@ -25809,7 +25800,7 @@
         <v>404</v>
       </c>
       <c r="I51" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="J51" t="s">
         <v>404</v>
@@ -25845,14 +25836,14 @@
         <v>#N/A</v>
       </c>
       <c r="T51" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="U51" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;....................................&lt;/font&gt;[{{ title_i_mod_rai_zip }}](/02_dialog-boxes/03_06_mod_rai_zip.html)&lt;br&gt;</v>
       </c>
       <c r="V51" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W51" t="e">
         <v>#N/A</v>
@@ -25869,13 +25860,13 @@
         <v>395</v>
       </c>
       <c r="D52" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E52" t="s">
         <v>500</v>
       </c>
       <c r="F52" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G52" t="s">
         <v>947</v>
@@ -25884,7 +25875,7 @@
         <v>64</v>
       </c>
       <c r="I52" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="J52" t="s">
         <v>64</v>
@@ -25920,17 +25911,17 @@
         <v>67</v>
       </c>
       <c r="T52" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U52" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_rem }}](/02_dialog-boxes/03_17_mod_rem.html)&lt;br&gt;</v>
       </c>
       <c r="V52" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W52" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15">
@@ -25944,13 +25935,13 @@
         <v>395</v>
       </c>
       <c r="D53" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E53" t="s">
         <v>500</v>
       </c>
       <c r="F53" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G53" t="s">
         <v>947</v>
@@ -25959,7 +25950,7 @@
         <v>54</v>
       </c>
       <c r="I53" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="J53" t="s">
         <v>54</v>
@@ -25995,17 +25986,17 @@
         <v>68</v>
       </c>
       <c r="T53" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U53" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_rest }}](/02_dialog-boxes/03_18_mod_rest.html)&lt;br&gt;</v>
       </c>
       <c r="V53" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W53" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15">
@@ -26019,13 +26010,13 @@
         <v>395</v>
       </c>
       <c r="D54" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E54" t="s">
         <v>500</v>
       </c>
       <c r="F54" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G54" t="s">
         <v>947</v>
@@ -26034,7 +26025,7 @@
         <v>59</v>
       </c>
       <c r="I54" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="J54" t="s">
         <v>59</v>
@@ -26070,17 +26061,17 @@
         <v>64</v>
       </c>
       <c r="T54" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U54" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_sc }}](/02_dialog-boxes/03_14_mod_sc.html)&lt;br&gt;</v>
       </c>
       <c r="V54" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W54" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15">
@@ -26094,13 +26085,13 @@
         <v>395</v>
       </c>
       <c r="D55" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E55" t="s">
         <v>500</v>
       </c>
       <c r="F55" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G55" t="s">
         <v>947</v>
@@ -26109,7 +26100,7 @@
         <v>71</v>
       </c>
       <c r="I55" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="J55" t="s">
         <v>71</v>
@@ -26145,17 +26136,17 @@
         <v>62</v>
       </c>
       <c r="T55" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U55" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_scr_secr }}](/02_dialog-boxes/03_11_mod_scr_secr.html)&lt;br&gt;</v>
       </c>
       <c r="V55" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W55" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15">
@@ -26169,13 +26160,13 @@
         <v>395</v>
       </c>
       <c r="D56" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E56" t="s">
         <v>500</v>
       </c>
       <c r="F56" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G56" t="s">
         <v>947</v>
@@ -26184,7 +26175,7 @@
         <v>61</v>
       </c>
       <c r="I56" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="J56" t="s">
         <v>61</v>
@@ -26197,7 +26188,7 @@
         <v>61</v>
       </c>
       <c r="M56" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="N56" t="s">
         <v>947</v>
@@ -26220,17 +26211,17 @@
         <v>63</v>
       </c>
       <c r="T56" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U56" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_smr }}](/02_dialog-boxes/03_13_mod_smr.html)&lt;br&gt;</v>
       </c>
       <c r="V56" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W56" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15">
@@ -26244,13 +26235,13 @@
         <v>395</v>
       </c>
       <c r="D57" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E57" t="s">
         <v>500</v>
       </c>
       <c r="F57" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G57" t="s">
         <v>947</v>
@@ -26259,7 +26250,7 @@
         <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="J57" t="s">
         <v>50</v>
@@ -26295,17 +26286,17 @@
         <v>72</v>
       </c>
       <c r="T57" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U57" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_ste }}](/02_dialog-boxes/03_22_mod_ste.html)&lt;br&gt;</v>
       </c>
       <c r="V57" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W57" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="15">
@@ -26319,13 +26310,13 @@
         <v>395</v>
       </c>
       <c r="D58" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E58" t="s">
         <v>500</v>
       </c>
       <c r="F58" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G58" t="s">
         <v>947</v>
@@ -26334,7 +26325,7 @@
         <v>82</v>
       </c>
       <c r="I58" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="J58" t="s">
         <v>82</v>
@@ -26370,17 +26361,17 @@
         <v>69</v>
       </c>
       <c r="T58" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U58" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_tifc }}](/02_dialog-boxes/03_19_mod_tifc.html)&lt;br&gt;</v>
       </c>
       <c r="V58" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W58" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="15">
@@ -26394,13 +26385,13 @@
         <v>395</v>
       </c>
       <c r="D59" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E59" t="s">
         <v>500</v>
       </c>
       <c r="F59" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G59" t="s">
         <v>947</v>
@@ -26409,7 +26400,7 @@
         <v>51</v>
       </c>
       <c r="I59" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="J59" t="s">
         <v>51</v>
@@ -26445,17 +26436,17 @@
         <v>71</v>
       </c>
       <c r="T59" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U59" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_mod_tte }}](/02_dialog-boxes/03_21_mod_tte.html)&lt;br&gt;</v>
       </c>
       <c r="V59" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W59" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75">
@@ -26466,10 +26457,10 @@
         <v>429</v>
       </c>
       <c r="C60" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D60" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E60" t="s">
         <v>1339</v>
@@ -26484,7 +26475,7 @@
         <v>456</v>
       </c>
       <c r="I60" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="J60" t="s">
         <v>456</v>
@@ -26497,7 +26488,7 @@
         <v>456</v>
       </c>
       <c r="M60" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="N60" t="s">
         <v>947</v>
@@ -26520,17 +26511,17 @@
         <v>49</v>
       </c>
       <c r="T60" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U60" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_modmixed }}](/02_dialog-boxes/01_49_modmixed.html)&lt;br&gt;</v>
       </c>
       <c r="V60" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W60" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75">
@@ -26541,10 +26532,10 @@
         <v>429</v>
       </c>
       <c r="C61" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D61" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E61" t="s">
         <v>1339</v>
@@ -26559,7 +26550,7 @@
         <v>13</v>
       </c>
       <c r="I61" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="J61" t="s">
         <v>13</v>
@@ -26572,7 +26563,7 @@
         <v>13</v>
       </c>
       <c r="M61" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="N61" t="s">
         <v>947</v>
@@ -26595,17 +26586,17 @@
         <v>48</v>
       </c>
       <c r="T61" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U61" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_multisamp_per_loc }}](/02_dialog-boxes/01_48_multisamp_per_loc.html)&lt;br&gt;</v>
       </c>
       <c r="V61" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W61" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15.75">
@@ -26616,16 +26607,16 @@
         <v>428</v>
       </c>
       <c r="C62" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D62" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E62" t="s">
         <v>1337</v>
       </c>
       <c r="F62" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="G62" t="s">
         <v>947</v>
@@ -26634,7 +26625,7 @@
         <v>108</v>
       </c>
       <c r="I62" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="J62" t="s">
         <v>108</v>
@@ -26647,10 +26638,10 @@
         <v>108</v>
       </c>
       <c r="M62" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="N62" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="O62" t="s">
         <v>947</v>
@@ -26670,17 +26661,17 @@
         <v>4</v>
       </c>
       <c r="T62" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U62" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_num_cams }}](/02_dialog-boxes/01_03_num_cams.html)&lt;br&gt;</v>
       </c>
       <c r="V62" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W62" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75">
@@ -26691,10 +26682,10 @@
         <v>0</v>
       </c>
       <c r="C63" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D63" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E63" t="s">
         <v>1339</v>
@@ -26709,7 +26700,7 @@
         <v>459</v>
       </c>
       <c r="I63" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="J63" t="s">
         <v>459</v>
@@ -26722,7 +26713,7 @@
         <v>459</v>
       </c>
       <c r="M63" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="N63" t="s">
         <v>947</v>
@@ -26745,17 +26736,17 @@
         <v>50</v>
       </c>
       <c r="T63" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U63" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_num_det }}](/02_dialog-boxes/01_50_num_det.html)&lt;br&gt;</v>
       </c>
       <c r="V63" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W63" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75">
@@ -26766,10 +26757,10 @@
         <v>0</v>
       </c>
       <c r="C64" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D64" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E64" t="s">
         <v>1339</v>
@@ -26784,7 +26775,7 @@
         <v>460</v>
       </c>
       <c r="I64" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="J64" t="s">
         <v>459</v>
@@ -26797,7 +26788,7 @@
         <v>459</v>
       </c>
       <c r="M64" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="N64" t="s">
         <v>947</v>
@@ -26820,17 +26811,17 @@
         <v>50</v>
       </c>
       <c r="T64" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U64" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_num_det }}](/02_dialog-boxes/01_50_num_det.html)&lt;br&gt;</v>
       </c>
       <c r="V64" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W64" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="15.75">
@@ -26841,10 +26832,10 @@
         <v>0</v>
       </c>
       <c r="C65" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D65" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E65" t="s">
         <v>1339</v>
@@ -26859,7 +26850,7 @@
         <v>461</v>
       </c>
       <c r="I65" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="J65" t="s">
         <v>461</v>
@@ -26872,7 +26863,7 @@
         <v>461</v>
       </c>
       <c r="M65" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="N65" t="s">
         <v>947</v>
@@ -26895,17 +26886,17 @@
         <v>52</v>
       </c>
       <c r="T65" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U65" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_num_recap }}](/02_dialog-boxes/01_52_num_recap.html)&lt;br&gt;</v>
       </c>
       <c r="V65" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W65" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="15.75">
@@ -26916,10 +26907,10 @@
         <v>428</v>
       </c>
       <c r="C66" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D66" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E66" t="s">
         <v>1335</v>
@@ -26934,7 +26925,7 @@
         <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="J66" t="s">
         <v>18</v>
@@ -26947,10 +26938,10 @@
         <v>18</v>
       </c>
       <c r="M66" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="N66" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="O66" t="s">
         <v>947</v>
@@ -26970,17 +26961,17 @@
         <v>16</v>
       </c>
       <c r="T66" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U66" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_obj_targ_sp }}](/02_dialog-boxes/01_12_obj_targ_sp.html)&lt;br&gt;</v>
       </c>
       <c r="V66" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W66" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="67" spans="1:23" ht="15.75">
@@ -26991,16 +26982,16 @@
         <v>428</v>
       </c>
       <c r="C67" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D67" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E67" t="s">
         <v>1337</v>
       </c>
       <c r="F67" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="G67" t="s">
         <v>947</v>
@@ -27009,7 +27000,7 @@
         <v>440</v>
       </c>
       <c r="I67" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="J67" t="s">
         <v>440</v>
@@ -27022,13 +27013,13 @@
         <v>440</v>
       </c>
       <c r="M67" s="153" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="N67" t="s">
         <v>947</v>
       </c>
       <c r="O67" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="P67" t="str">
         <f t="shared" si="9"/>
@@ -27045,17 +27036,17 @@
         <v>3</v>
       </c>
       <c r="T67" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U67" t="str">
         <f t="shared" si="11"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_objective }}](/02_dialog-boxes/01_02_objective.html)&lt;br&gt;</v>
       </c>
       <c r="V67" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W67" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="15">
@@ -27066,7 +27057,7 @@
         <v>947</v>
       </c>
       <c r="C68" s="148" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D68" t="s">
         <v>947</v>
@@ -27093,7 +27084,7 @@
         <v>947</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="M68" s="12" t="s">
         <v>1337</v>
@@ -27111,7 +27102,7 @@
         <v>1</v>
       </c>
       <c r="V68" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W68" t="e">
         <v>#N/A</v>
@@ -27125,10 +27116,10 @@
         <v>0</v>
       </c>
       <c r="C69" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D69" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E69" t="s">
         <v>1339</v>
@@ -27143,20 +27134,20 @@
         <v>462</v>
       </c>
       <c r="I69" s="154" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="J69" s="154" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="K69" t="str">
         <f>"{{ title_i_"&amp;J69&amp;" }}"</f>
         <v>{{ title_i_overdispersion_zeroinflation }}</v>
       </c>
       <c r="L69" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="M69" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="N69" t="s">
         <v>947</v>
@@ -27179,14 +27170,14 @@
         <v>53</v>
       </c>
       <c r="T69" s="103" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U69" t="str">
         <f>T69&amp;K69&amp;"](/02_dialog-boxes/"&amp;I69&amp;".html)&lt;br&gt;"</f>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_overdispersion_zeroinflation }}](/02_dialog-boxes/01_53_overdispersion_zeroinflation.html)&lt;br&gt;</v>
       </c>
       <c r="V69" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W69" t="e">
         <v>#N/A</v>
@@ -27200,7 +27191,7 @@
         <v>947</v>
       </c>
       <c r="C70" s="148" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D70" t="s">
         <v>947</v>
@@ -27227,7 +27218,7 @@
         <v>947</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="M70" s="12" t="s">
         <v>500</v>
@@ -27245,7 +27236,7 @@
         <v>54</v>
       </c>
       <c r="V70" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W70" t="e">
         <v>#N/A</v>
@@ -27259,7 +27250,7 @@
         <v>947</v>
       </c>
       <c r="C71" s="148" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D71" t="s">
         <v>947</v>
@@ -27286,10 +27277,10 @@
         <v>947</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="N71" t="s">
         <v>947</v>
@@ -27304,7 +27295,7 @@
         <v>75</v>
       </c>
       <c r="V71" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W71" t="e">
         <v>#N/A</v>
@@ -27318,7 +27309,7 @@
         <v>947</v>
       </c>
       <c r="C72" s="148" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D72" t="s">
         <v>947</v>
@@ -27345,10 +27336,10 @@
         <v>947</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="N72" t="s">
         <v>947</v>
@@ -27363,7 +27354,7 @@
         <v>56</v>
       </c>
       <c r="V72" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W72" t="e">
         <v>#N/A</v>
@@ -27377,7 +27368,7 @@
         <v>947</v>
       </c>
       <c r="C73" s="148" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D73" t="s">
         <v>947</v>
@@ -27404,10 +27395,10 @@
         <v>947</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="N73" t="s">
         <v>947</v>
@@ -27422,7 +27413,7 @@
         <v>55</v>
       </c>
       <c r="V73" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W73" t="e">
         <v>#N/A</v>
@@ -27454,7 +27445,7 @@
         <v>947</v>
       </c>
       <c r="I74" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="J74" t="s">
         <v>947</v>
@@ -27463,7 +27454,7 @@
         <v>947</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="M74" s="12" t="s">
         <v>1638</v>
@@ -27481,10 +27472,10 @@
         <v>77</v>
       </c>
       <c r="V74" s="106" t="s">
+        <v>2322</v>
+      </c>
+      <c r="W74" t="s">
         <v>2323</v>
-      </c>
-      <c r="W74" t="s">
-        <v>2324</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="15">
@@ -27495,7 +27486,7 @@
         <v>947</v>
       </c>
       <c r="C75" s="148" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D75" t="s">
         <v>947</v>
@@ -27522,10 +27513,10 @@
         <v>947</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="N75" t="s">
         <v>947</v>
@@ -27540,7 +27531,7 @@
         <v>76</v>
       </c>
       <c r="V75" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W75" t="e">
         <v>#N/A</v>
@@ -27554,16 +27545,16 @@
         <v>428</v>
       </c>
       <c r="C76" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D76" s="158" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E76" t="s">
         <v>1334</v>
       </c>
       <c r="F76" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="G76" t="s">
         <v>947</v>
@@ -27572,7 +27563,7 @@
         <v>441</v>
       </c>
       <c r="I76" s="158" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="J76" t="s">
         <v>441</v>
@@ -27585,7 +27576,7 @@
         <v>441</v>
       </c>
       <c r="M76" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="N76" t="s">
         <v>947</v>
@@ -27608,17 +27599,17 @@
         <v>12</v>
       </c>
       <c r="T76" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U76" t="str">
         <f t="shared" ref="U76:U95" si="15">T76&amp;K76&amp;"](/02_dialog-boxes/"&amp;I76&amp;".html)&lt;br&gt;"</f>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_asymptote }}](/02_dialog-boxes/01_10_sp_asymptote.html)&lt;br&gt;</v>
       </c>
       <c r="V76" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W76" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="15.75">
@@ -27629,16 +27620,16 @@
         <v>0</v>
       </c>
       <c r="C77" s="156" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D77" s="103" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E77" s="103" t="s">
         <v>1335</v>
       </c>
       <c r="F77" s="103" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G77" s="103" t="s">
         <v>947</v>
@@ -27647,7 +27638,7 @@
         <v>15</v>
       </c>
       <c r="I77" s="103" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="J77" s="103" t="s">
         <v>15</v>
@@ -27660,7 +27651,7 @@
         <v>15</v>
       </c>
       <c r="M77" s="103" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="N77" t="s">
         <v>947</v>
@@ -27683,17 +27674,17 @@
         <v>25</v>
       </c>
       <c r="T77" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U77" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_behav }}](/02_dialog-boxes/01_21_sp_behav.html)&lt;br&gt;</v>
       </c>
       <c r="V77" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W77" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="15.75">
@@ -27704,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C78" s="156" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D78" s="103" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E78" s="103" t="s">
         <v>1335</v>
       </c>
       <c r="F78" s="103" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="G78" s="103" t="s">
         <v>947</v>
@@ -27722,7 +27713,7 @@
         <v>438</v>
       </c>
       <c r="I78" s="103" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="J78" s="103" t="s">
         <v>438</v>
@@ -27735,7 +27726,7 @@
         <v>438</v>
       </c>
       <c r="M78" s="103" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="N78" t="s">
         <v>947</v>
@@ -27758,17 +27749,17 @@
         <v>37</v>
       </c>
       <c r="T78" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U78" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_behav_mult }}](/02_dialog-boxes/01_32_sp_behav_multi.html)&lt;br&gt;</v>
       </c>
       <c r="V78" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W78" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="79" spans="1:23" ht="15.75">
@@ -27779,16 +27770,16 @@
         <v>0</v>
       </c>
       <c r="C79" s="156" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D79" s="103" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E79" s="103" t="s">
         <v>1335</v>
       </c>
       <c r="F79" s="103" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G79" s="103" t="s">
         <v>947</v>
@@ -27797,7 +27788,7 @@
         <v>19</v>
       </c>
       <c r="I79" s="103" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="J79" s="103" t="s">
         <v>19</v>
@@ -27810,7 +27801,7 @@
         <v>19</v>
       </c>
       <c r="M79" s="103" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="N79" t="s">
         <v>947</v>
@@ -27833,17 +27824,17 @@
         <v>26</v>
       </c>
       <c r="T79" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U79" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_behav_season }}](/02_dialog-boxes/01_22_sp_behav_season.html)&lt;br&gt;</v>
       </c>
       <c r="V79" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W79" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="15.75">
@@ -27854,16 +27845,16 @@
         <v>429</v>
       </c>
       <c r="C80" s="156" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D80" s="103" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E80" s="103" t="s">
         <v>1335</v>
       </c>
       <c r="F80" s="103" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G80" s="103" t="s">
         <v>947</v>
@@ -27872,7 +27863,7 @@
         <v>457</v>
       </c>
       <c r="I80" s="103" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="J80" s="103" t="s">
         <v>457</v>
@@ -27885,7 +27876,7 @@
         <v>457</v>
       </c>
       <c r="M80" s="103" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="N80" t="s">
         <v>947</v>
@@ -27908,17 +27899,17 @@
         <v>34</v>
       </c>
       <c r="T80" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U80" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_common_pop_lg }}](/02_dialog-boxes/01_30_sp_common_pop_lg.html)&lt;br&gt;</v>
       </c>
       <c r="V80" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W80" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="15.75">
@@ -27929,16 +27920,16 @@
         <v>429</v>
       </c>
       <c r="C81" s="156" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D81" s="103" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E81" s="103" t="s">
         <v>1335</v>
       </c>
       <c r="F81" s="103" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G81" s="103" t="s">
         <v>947</v>
@@ -27947,7 +27938,7 @@
         <v>458</v>
       </c>
       <c r="I81" s="103" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="J81" s="103" t="s">
         <v>458</v>
@@ -27960,7 +27951,7 @@
         <v>458</v>
       </c>
       <c r="M81" s="103" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="N81" t="s">
         <v>947</v>
@@ -27983,17 +27974,17 @@
         <v>19</v>
       </c>
       <c r="T81" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U81" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_dens_low }}](/02_dialog-boxes/01_15_sp_dens_low.html)&lt;br&gt;</v>
       </c>
       <c r="V81" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W81" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="15.75">
@@ -28004,16 +27995,16 @@
         <v>428</v>
       </c>
       <c r="C82" s="156" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D82" s="103" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E82" s="103" t="s">
         <v>1335</v>
       </c>
       <c r="F82" s="103" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G82" s="103" t="s">
         <v>947</v>
@@ -28022,7 +28013,7 @@
         <v>12</v>
       </c>
       <c r="I82" s="103" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="J82" s="103" t="s">
         <v>12</v>
@@ -28035,10 +28026,10 @@
         <v>12</v>
       </c>
       <c r="M82" s="103" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="N82" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="O82" t="s">
         <v>947</v>
@@ -28058,17 +28049,17 @@
         <v>24</v>
       </c>
       <c r="T82" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U82" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_detprob_cat }}](/02_dialog-boxes/01_20_sp_detprob_cat.html)&lt;br&gt;</v>
       </c>
       <c r="V82" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W82" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="15.75">
@@ -28079,38 +28070,38 @@
         <v>0</v>
       </c>
       <c r="C83" s="155" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D83" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E83" t="s">
         <v>1335</v>
       </c>
       <c r="F83" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="G83" t="s">
         <v>947</v>
       </c>
       <c r="H83" t="s">
+        <v>2183</v>
+      </c>
+      <c r="I83" t="s">
         <v>2184</v>
       </c>
-      <c r="I83" t="s">
-        <v>2185</v>
-      </c>
       <c r="J83" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="K83" t="str">
         <f t="shared" si="12"/>
         <v>{{ title_i_sp_detprob_cat_multi }}</v>
       </c>
       <c r="L83" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M83" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="N83" t="s">
         <v>947</v>
@@ -28133,17 +28124,17 @@
         <v>39</v>
       </c>
       <c r="T83" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U83" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_detprob_cat_multi }}](/02_dialog-boxes/01_36_sp_detprob_cat_multi.html)&lt;br&gt;</v>
       </c>
       <c r="V83" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W83" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="84" spans="1:23" ht="15.75">
@@ -28154,16 +28145,16 @@
         <v>0</v>
       </c>
       <c r="C84" s="156" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D84" s="103" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E84" s="103" t="s">
         <v>1335</v>
       </c>
       <c r="F84" s="103" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="G84" s="103" t="s">
         <v>947</v>
@@ -28172,20 +28163,20 @@
         <v>463</v>
       </c>
       <c r="I84" s="103" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="J84" s="103" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="K84" t="str">
         <f t="shared" si="12"/>
         <v>{{ title_i_sp_detprob_cat_multi }}</v>
       </c>
       <c r="L84" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M84" s="103" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="N84" t="s">
         <v>947</v>
@@ -28208,17 +28199,17 @@
         <v>39</v>
       </c>
       <c r="T84" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U84" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_detprob_cat_multi }}](/02_dialog-boxes/01_36_sp_detprob_cat_multi.html)&lt;br&gt;</v>
       </c>
       <c r="V84" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W84" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="15.75">
@@ -28229,16 +28220,16 @@
         <v>0</v>
       </c>
       <c r="C85" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D85" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E85" t="s">
         <v>1335</v>
       </c>
       <c r="F85" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="G85" t="s">
         <v>947</v>
@@ -28247,20 +28238,20 @@
         <v>464</v>
       </c>
       <c r="I85" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="J85" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="K85" t="str">
         <f t="shared" si="12"/>
         <v>{{ title_i_sp_detprob_cat_multi }}</v>
       </c>
       <c r="L85" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M85" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="N85" t="s">
         <v>947</v>
@@ -28283,17 +28274,17 @@
         <v>39</v>
       </c>
       <c r="T85" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U85" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_detprob_cat_multi }}](/02_dialog-boxes/01_36_sp_detprob_cat_multi.html)&lt;br&gt;</v>
       </c>
       <c r="V85" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W85" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="15.75">
@@ -28304,16 +28295,16 @@
         <v>428</v>
       </c>
       <c r="C86" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D86" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E86" t="s">
         <v>1335</v>
       </c>
       <c r="F86" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G86" t="s">
         <v>947</v>
@@ -28322,7 +28313,7 @@
         <v>442</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="J86" t="s">
         <v>442</v>
@@ -28335,10 +28326,10 @@
         <v>442</v>
       </c>
       <c r="M86" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="N86" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="O86" t="s">
         <v>947</v>
@@ -28358,17 +28349,17 @@
         <v>21</v>
       </c>
       <c r="T86" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U86" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_hr_size }}](/02_dialog-boxes/01_17_sp_hr_size.html)&lt;br&gt;</v>
       </c>
       <c r="V86" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W86" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="15.75">
@@ -28379,16 +28370,16 @@
         <v>428</v>
       </c>
       <c r="C87" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D87" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E87" t="s">
         <v>1335</v>
       </c>
       <c r="F87" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G87" t="s">
         <v>947</v>
@@ -28397,7 +28388,7 @@
         <v>443</v>
       </c>
       <c r="I87" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="J87" t="s">
         <v>443</v>
@@ -28410,10 +28401,10 @@
         <v>443</v>
       </c>
       <c r="M87" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="N87" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="O87" t="s">
         <v>947</v>
@@ -28433,17 +28424,17 @@
         <v>17</v>
       </c>
       <c r="T87" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U87" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_info }}](/02_dialog-boxes/01_13_sp_info.html)&lt;br&gt;</v>
       </c>
       <c r="V87" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W87" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="88" spans="1:23" ht="15.75">
@@ -28454,16 +28445,16 @@
         <v>429</v>
       </c>
       <c r="C88" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D88" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E88" t="s">
         <v>1335</v>
       </c>
       <c r="F88" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G88" t="s">
         <v>947</v>
@@ -28472,7 +28463,7 @@
         <v>444</v>
       </c>
       <c r="I88" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="J88" t="s">
         <v>444</v>
@@ -28485,7 +28476,7 @@
         <v>444</v>
       </c>
       <c r="M88" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="N88" t="s">
         <v>947</v>
@@ -28508,17 +28499,17 @@
         <v>20</v>
       </c>
       <c r="T88" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U88" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_occ_restr }}](/02_dialog-boxes/01_16_sp_occ_restr.html)&lt;br&gt;</v>
       </c>
       <c r="V88" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W88" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="15.75">
@@ -28529,16 +28520,16 @@
         <v>428</v>
       </c>
       <c r="C89" s="169" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D89" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E89" t="s">
         <v>1335</v>
       </c>
       <c r="F89" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G89" t="s">
         <v>947</v>
@@ -28547,7 +28538,7 @@
         <v>14</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
@@ -28560,10 +28551,10 @@
         <v>14</v>
       </c>
       <c r="M89" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="N89" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="O89" t="s">
         <v>947</v>
@@ -28583,17 +28574,17 @@
         <v>23</v>
       </c>
       <c r="T89" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U89" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_rarity }}](/02_dialog-boxes/01_19_sp_rarity.html)&lt;br&gt;</v>
       </c>
       <c r="V89" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W89" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="90" spans="1:23" ht="15.75">
@@ -28604,38 +28595,38 @@
         <v>0</v>
       </c>
       <c r="C90" s="169" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D90" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E90" t="s">
         <v>1335</v>
       </c>
       <c r="F90" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="G90" t="s">
         <v>947</v>
       </c>
       <c r="H90" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I90" t="s">
         <v>2189</v>
       </c>
-      <c r="I90" t="s">
-        <v>2190</v>
-      </c>
       <c r="J90" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" si="12"/>
         <v>{{ title_i_sp_rarity_multi }}</v>
       </c>
       <c r="L90" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="M90" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="N90" t="s">
         <v>947</v>
@@ -28658,17 +28649,17 @@
         <v>38</v>
       </c>
       <c r="T90" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U90" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_rarity_multi }}](/02_dialog-boxes/01_33_sp_rarity_multi.html)&lt;br&gt;</v>
       </c>
       <c r="V90" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W90" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="15.75">
@@ -28679,38 +28670,38 @@
         <v>0</v>
       </c>
       <c r="C91" s="169" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D91" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E91" t="s">
         <v>1335</v>
       </c>
       <c r="F91" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="G91" t="s">
         <v>947</v>
       </c>
       <c r="H91" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="I91" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="J91" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K91" t="str">
         <f t="shared" si="12"/>
         <v>{{ title_i_sp_rarity_multi }}</v>
       </c>
       <c r="L91" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="M91" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="N91" t="s">
         <v>947</v>
@@ -28733,17 +28724,17 @@
         <v>38</v>
       </c>
       <c r="T91" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U91" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_rarity_multi }}](/02_dialog-boxes/01_33_sp_rarity_multi.html)&lt;br&gt;</v>
       </c>
       <c r="V91" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W91" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="15.75">
@@ -28754,38 +28745,38 @@
         <v>0</v>
       </c>
       <c r="C92" s="169" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D92" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E92" t="s">
         <v>1335</v>
       </c>
       <c r="F92" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="G92" t="s">
         <v>947</v>
       </c>
       <c r="H92" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="I92" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="J92" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K92" t="str">
         <f t="shared" si="12"/>
         <v>{{ title_i_sp_rarity_multi }}</v>
       </c>
       <c r="L92" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="M92" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="N92" t="s">
         <v>947</v>
@@ -28808,17 +28799,17 @@
         <v>38</v>
       </c>
       <c r="T92" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U92" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_rarity_multi }}](/02_dialog-boxes/01_33_sp_rarity_multi.html)&lt;br&gt;</v>
       </c>
       <c r="V92" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W92" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="93" spans="1:23" ht="15.75">
@@ -28829,16 +28820,16 @@
         <v>428</v>
       </c>
       <c r="C93" s="169" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D93" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E93" t="s">
         <v>1335</v>
       </c>
       <c r="F93" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G93" t="s">
         <v>947</v>
@@ -28847,7 +28838,7 @@
         <v>21</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="J93" t="s">
         <v>21</v>
@@ -28860,10 +28851,10 @@
         <v>21</v>
       </c>
       <c r="M93" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="N93" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="O93" t="s">
         <v>947</v>
@@ -28883,17 +28874,17 @@
         <v>22</v>
       </c>
       <c r="T93" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U93" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_size }}](/02_dialog-boxes/01_18_sp_size.html)&lt;br&gt;</v>
       </c>
       <c r="V93" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W93" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="94" spans="1:23" ht="15.75">
@@ -28904,16 +28895,16 @@
         <v>428</v>
       </c>
       <c r="C94" s="169" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D94" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E94" t="s">
         <v>1335</v>
       </c>
       <c r="F94" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G94" t="s">
         <v>947</v>
@@ -28922,7 +28913,7 @@
         <v>445</v>
       </c>
       <c r="I94" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="J94" t="s">
         <v>445</v>
@@ -28935,7 +28926,7 @@
         <v>445</v>
       </c>
       <c r="M94" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="N94" t="s">
         <v>947</v>
@@ -28958,17 +28949,17 @@
         <v>18</v>
       </c>
       <c r="T94" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U94" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_sp_type }}](/02_dialog-boxes/01_14_sp_type.html)&lt;br&gt;</v>
       </c>
       <c r="V94" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W94" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="15.75">
@@ -28979,16 +28970,16 @@
         <v>0</v>
       </c>
       <c r="C95" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>1336</v>
       </c>
       <c r="F95" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="G95" t="s">
         <v>947</v>
@@ -28997,7 +28988,7 @@
         <v>23</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="J95" t="s">
         <v>23</v>
@@ -29010,7 +29001,7 @@
         <v>23</v>
       </c>
       <c r="M95" s="159" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="N95" t="s">
         <v>947</v>
@@ -29033,17 +29024,17 @@
         <v>6</v>
       </c>
       <c r="T95" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U95" t="str">
         <f t="shared" si="15"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_study_area_mult }}](/02_dialog-boxes/01_04_study_area_mult.html)&lt;br&gt;</v>
       </c>
       <c r="V95" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W95" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="15">
@@ -29054,7 +29045,7 @@
         <v>947</v>
       </c>
       <c r="C96" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D96" t="s">
         <v>947</v>
@@ -29072,7 +29063,7 @@
         <v>947</v>
       </c>
       <c r="I96" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="J96" t="s">
         <v>947</v>
@@ -29081,7 +29072,7 @@
         <v>947</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="M96" s="12" t="s">
         <v>1336</v>
@@ -29099,7 +29090,7 @@
         <v>5</v>
       </c>
       <c r="V96" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W96" t="e">
         <v>#N/A</v>
@@ -29113,16 +29104,16 @@
         <v>0</v>
       </c>
       <c r="C97" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D97" s="158" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E97" t="s">
         <v>1334</v>
       </c>
       <c r="F97" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="G97" t="s">
         <v>947</v>
@@ -29131,7 +29122,7 @@
         <v>25</v>
       </c>
       <c r="I97" s="158" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="J97" t="s">
         <v>25</v>
@@ -29144,7 +29135,7 @@
         <v>25</v>
       </c>
       <c r="M97" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="N97" t="s">
         <v>947</v>
@@ -29167,17 +29158,17 @@
         <v>13</v>
       </c>
       <c r="T97" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U97" t="str">
         <f t="shared" ref="U97:U102" si="19">T97&amp;K97&amp;"](/02_dialog-boxes/"&amp;I97&amp;".html)&lt;br&gt;"</f>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_study_season_num }}](/02_dialog-boxes/01_11_study_season_num.html)&lt;br&gt;</v>
       </c>
       <c r="V97" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W97" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="15.75">
@@ -29188,16 +29179,16 @@
         <v>428</v>
       </c>
       <c r="C98" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D98" s="158" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E98" t="s">
         <v>1334</v>
       </c>
       <c r="F98" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="G98" t="s">
         <v>947</v>
@@ -29206,7 +29197,7 @@
         <v>446</v>
       </c>
       <c r="I98" s="158" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="J98" t="s">
         <v>1630</v>
@@ -29219,13 +29210,13 @@
         <v>1630</v>
       </c>
       <c r="M98" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="N98" t="s">
         <v>121</v>
       </c>
       <c r="O98" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="P98" t="str">
         <f t="shared" si="17"/>
@@ -29242,17 +29233,17 @@
         <v>11</v>
       </c>
       <c r="T98" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U98" t="str">
         <f t="shared" si="19"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_surv_dur }}](/02_dialog-boxes/01_08_surv_dur.html)&lt;br&gt;</v>
       </c>
       <c r="V98" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W98" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="15.75">
@@ -29263,16 +29254,16 @@
         <v>0</v>
       </c>
       <c r="C99" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D99" s="158" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E99" t="s">
         <v>1334</v>
       </c>
       <c r="F99" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="G99" t="s">
         <v>947</v>
@@ -29281,7 +29272,7 @@
         <v>467</v>
       </c>
       <c r="I99" s="158" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="J99" t="s">
         <v>1630</v>
@@ -29294,7 +29285,7 @@
         <v>1630</v>
       </c>
       <c r="M99" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="N99" t="s">
         <v>947</v>
@@ -29317,17 +29308,17 @@
         <v>11</v>
       </c>
       <c r="T99" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U99" t="str">
         <f t="shared" si="19"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_surv_dur }}](/02_dialog-boxes/01_08_surv_dur.html)&lt;br&gt;</v>
       </c>
       <c r="V99" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W99" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="15.75">
@@ -29338,38 +29329,38 @@
         <v>0</v>
       </c>
       <c r="C100" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D100" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E100" t="s">
         <v>1338</v>
       </c>
       <c r="F100" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="G100" t="s">
         <v>947</v>
       </c>
       <c r="H100" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="I100" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="J100" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="K100" t="str">
         <f t="shared" si="16"/>
         <v>{{ title_i_targ_feature }}</v>
       </c>
       <c r="L100" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="M100" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="N100" t="s">
         <v>947</v>
@@ -29392,17 +29383,17 @@
         <v>45</v>
       </c>
       <c r="T100" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U100" t="str">
         <f t="shared" si="19"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_targ_feature }}](/02_dialog-boxes/01_45_targ_feature.html)&lt;br&gt;</v>
       </c>
       <c r="V100" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W100" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="15.75">
@@ -29413,38 +29404,38 @@
         <v>0</v>
       </c>
       <c r="C101" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D101" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E101" t="s">
         <v>1338</v>
       </c>
       <c r="F101" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="G101" t="s">
         <v>947</v>
       </c>
       <c r="H101" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="I101" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="J101" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" si="16"/>
         <v>{{ title_i_targ_feature }}</v>
       </c>
       <c r="L101" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="M101" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="N101" t="s">
         <v>947</v>
@@ -29467,17 +29458,17 @@
         <v>45</v>
       </c>
       <c r="T101" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U101" t="str">
         <f t="shared" si="19"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_targ_feature }}](/02_dialog-boxes/01_45_targ_feature.html)&lt;br&gt;</v>
       </c>
       <c r="V101" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W101" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="15.75">
@@ -29488,38 +29479,38 @@
         <v>0</v>
       </c>
       <c r="C102" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D102" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E102" t="s">
         <v>1338</v>
       </c>
       <c r="F102" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="G102" t="s">
         <v>947</v>
       </c>
       <c r="H102" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="I102" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="J102" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="K102" t="str">
         <f t="shared" si="16"/>
         <v>{{ title_i_targ_feature }}</v>
       </c>
       <c r="L102" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="M102" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="N102" t="s">
         <v>947</v>
@@ -29542,17 +29533,17 @@
         <v>45</v>
       </c>
       <c r="T102" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U102" t="str">
         <f t="shared" si="19"/>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_targ_feature }}](/02_dialog-boxes/01_45_targ_feature.html)&lt;br&gt;</v>
       </c>
       <c r="V102" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W102" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="15">
@@ -29563,7 +29554,7 @@
         <v>947</v>
       </c>
       <c r="C103" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D103" t="s">
         <v>947</v>
@@ -29590,7 +29581,7 @@
         <v>947</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="M103" s="12" t="s">
         <v>1335</v>
@@ -29608,7 +29599,7 @@
         <v>14</v>
       </c>
       <c r="V103" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W103" t="e">
         <v>#N/A</v>
@@ -29622,7 +29613,7 @@
         <v>947</v>
       </c>
       <c r="C104" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D104" t="s">
         <v>947</v>
@@ -29649,7 +29640,7 @@
         <v>947</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>1338</v>
@@ -29667,7 +29658,7 @@
         <v>40</v>
       </c>
       <c r="V104" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W104" t="e">
         <v>#N/A</v>
@@ -29681,7 +29672,7 @@
         <v>947</v>
       </c>
       <c r="C105" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D105" t="s">
         <v>947</v>
@@ -29708,10 +29699,10 @@
         <v>947</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="M105" s="12" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="N105" t="s">
         <v>947</v>
@@ -29726,7 +29717,7 @@
         <v>35</v>
       </c>
       <c r="V105" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W105" t="e">
         <v>#N/A</v>
@@ -29740,7 +29731,7 @@
         <v>947</v>
       </c>
       <c r="C106" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D106" t="s">
         <v>947</v>
@@ -29767,10 +29758,10 @@
         <v>947</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="M106" s="12" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="N106" t="s">
         <v>947</v>
@@ -29785,7 +29776,7 @@
         <v>15</v>
       </c>
       <c r="V106" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W106" t="e">
         <v>#N/A</v>
@@ -29799,16 +29790,16 @@
         <v>0</v>
       </c>
       <c r="C107" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D107" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E107" t="s">
         <v>1337</v>
       </c>
       <c r="F107" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="G107" t="s">
         <v>947</v>
@@ -29817,7 +29808,7 @@
         <v>468</v>
       </c>
       <c r="I107" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="J107" t="s">
         <v>468</v>
@@ -29830,7 +29821,7 @@
         <v>468</v>
       </c>
       <c r="M107" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="N107" t="s">
         <v>947</v>
@@ -29853,17 +29844,17 @@
         <v>2</v>
       </c>
       <c r="T107" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U107" t="str">
         <f>T107&amp;K107&amp;"](/02_dialog-boxes/"&amp;I107&amp;".html)&lt;br&gt;"</f>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_user_entry }}](/02_dialog-boxes/01_01_user_entry.html)&lt;br&gt;</v>
       </c>
       <c r="V107" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W107" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="15.75">
@@ -29874,10 +29865,10 @@
         <v>0</v>
       </c>
       <c r="C108" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D108" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E108" t="s">
         <v>1339</v>
@@ -29892,7 +29883,7 @@
         <v>470</v>
       </c>
       <c r="I108" s="154" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="J108" s="154" t="s">
         <v>470</v>
@@ -29905,7 +29896,7 @@
         <v>470</v>
       </c>
       <c r="M108" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="N108" t="s">
         <v>947</v>
@@ -29928,14 +29919,14 @@
         <v>#N/A</v>
       </c>
       <c r="T108" s="103" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U108" t="str">
         <f>T108&amp;K108&amp;"](/02_dialog-boxes/"&amp;I108&amp;".html)&lt;br&gt;"</f>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_zi_overdispersed }}](/02_dialog-boxes/01_55_zi_overdispersed.html)&lt;br&gt;</v>
       </c>
       <c r="V108" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W108" t="e">
         <v>#N/A</v>
@@ -29949,10 +29940,10 @@
         <v>0</v>
       </c>
       <c r="C109" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D109" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E109" t="s">
         <v>1339</v>
@@ -29967,7 +29958,7 @@
         <v>471</v>
       </c>
       <c r="I109" s="154" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="J109" s="154" t="s">
         <v>471</v>
@@ -29980,7 +29971,7 @@
         <v>471</v>
       </c>
       <c r="M109" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="N109" t="s">
         <v>947</v>
@@ -30003,14 +29994,14 @@
         <v>#N/A</v>
       </c>
       <c r="T109" s="103" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U109" t="str">
         <f>T109&amp;K109&amp;"](/02_dialog-boxes/"&amp;I109&amp;".html)&lt;br&gt;"</f>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_zi_process }}](/02_dialog-boxes/01_58_zi_process.html)&lt;br&gt;</v>
       </c>
       <c r="V109" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W109" t="e">
         <v>#N/A</v>
@@ -30024,10 +30015,10 @@
         <v>0</v>
       </c>
       <c r="C110" s="157" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D110" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E110" t="s">
         <v>1339</v>
@@ -30042,7 +30033,7 @@
         <v>472</v>
       </c>
       <c r="I110" s="154" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="J110" s="154" t="s">
         <v>472</v>
@@ -30055,7 +30046,7 @@
         <v>472</v>
       </c>
       <c r="M110" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="N110" t="s">
         <v>947</v>
@@ -30078,14 +30069,14 @@
         <v>#N/A</v>
       </c>
       <c r="T110" s="103" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="U110" t="str">
         <f>T110&amp;K110&amp;"](/02_dialog-boxes/"&amp;I110&amp;".html)&lt;br&gt;"</f>
         <v>&lt;font color='#FFFFFF'&gt;........................&lt;/font&gt;[{{ title_i_zi_re_overdispersed }}](/02_dialog-boxes/01_57_zi_re_overdispersed.html)&lt;br&gt;</v>
       </c>
       <c r="V110" s="106" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="W110" t="e">
         <v>#N/A</v>
@@ -30181,10 +30172,10 @@
       <c r="D2" s="105"/>
       <c r="E2" s="105"/>
       <c r="F2" s="2" t="s">
+        <v>2345</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>2346</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2347</v>
       </c>
       <c r="H2" s="105"/>
       <c r="J2" s="104"/>
@@ -30198,10 +30189,10 @@
       <c r="D3" s="65"/>
       <c r="E3" s="65"/>
       <c r="F3" s="168" t="s">
+        <v>2343</v>
+      </c>
+      <c r="G3" s="168" t="s">
         <v>2344</v>
-      </c>
-      <c r="G3" s="168" t="s">
-        <v>2345</v>
       </c>
       <c r="H3" s="65"/>
       <c r="J3" s="65"/>
@@ -30215,10 +30206,10 @@
       <c r="D4" s="65"/>
       <c r="E4" s="65"/>
       <c r="F4" s="168" t="s">
+        <v>2341</v>
+      </c>
+      <c r="G4" s="168" t="s">
         <v>2342</v>
-      </c>
-      <c r="G4" s="168" t="s">
-        <v>2343</v>
       </c>
       <c r="H4" s="65"/>
       <c r="J4" s="65"/>
@@ -30240,7 +30231,7 @@
         <v>1764</v>
       </c>
       <c r="H5" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="I5" t="s">
         <v>947</v>
@@ -30258,16 +30249,16 @@
         <v>1752</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>2339</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>2340</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>2341</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>1764</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>947</v>
@@ -30294,7 +30285,7 @@
         <v>1761</v>
       </c>
       <c r="H7" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="I7" t="s">
         <v>947</v>
@@ -30321,7 +30312,7 @@
         <v>1758</v>
       </c>
       <c r="H8" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="I8" t="s">
         <v>947</v>
@@ -30348,7 +30339,7 @@
         <v>1755</v>
       </c>
       <c r="H9" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="I9" t="s">
         <v>947</v>
@@ -30375,7 +30366,7 @@
         <v>1753</v>
       </c>
       <c r="H10" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="I10" t="s">
         <v>947</v>
@@ -30769,19 +30760,19 @@
         <v>1701</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F24" s="101" t="s">
+        <v>2327</v>
+      </c>
+      <c r="G24" s="166" t="s">
+        <v>2326</v>
+      </c>
+      <c r="H24" s="101" t="s">
         <v>2328</v>
-      </c>
-      <c r="G24" s="166" t="s">
-        <v>2327</v>
-      </c>
-      <c r="H24" s="101" t="s">
-        <v>2329</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
@@ -30796,19 +30787,19 @@
         <v>1701</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>1668</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -32287,27 +32278,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="106" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="B1" s="106" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B2" t="s">
         <v>1337</v>
       </c>
       <c r="C2" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D17" si="0">A2&amp;"_text: "&amp;""""&amp;B2&amp;""""</f>
@@ -32316,13 +32307,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="B3" t="s">
         <v>1336</v>
       </c>
       <c r="C3" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -32331,13 +32322,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B4" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C4" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -32346,13 +32337,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B5" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -32361,13 +32352,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B6" t="s">
         <v>1334</v>
       </c>
       <c r="C6" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -32376,10 +32367,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B7" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -32388,10 +32379,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="B8" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -32400,13 +32391,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B9" t="s">
         <v>1335</v>
       </c>
       <c r="C9" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -32415,13 +32406,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C10" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -32430,13 +32421,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="B11" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="C11" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -32445,13 +32436,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B12" t="s">
         <v>1338</v>
       </c>
       <c r="C12" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -32460,13 +32451,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B13" t="s">
         <v>1339</v>
       </c>
       <c r="C13" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -32475,13 +32466,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B14" t="s">
         <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -32490,13 +32481,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="B15" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="C15" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -32505,13 +32496,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="B16" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C16" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -32520,13 +32511,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B17" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="C17" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -64666,17 +64657,17 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E3:F317">
-    <cfRule type="containsText" dxfId="132" priority="9" operator="containsText" text="num_cams">
+    <cfRule type="containsText" dxfId="132" priority="12" operator="containsText" text="survey_duration">
+      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(E3))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="9" operator="containsText" text="num_cams">
       <formula>NOT(ISERROR(SEARCH(("num_cams"),(E3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="10" operator="containsText" text="cam_arrange">
+    <cfRule type="containsText" dxfId="130" priority="10" operator="containsText" text="cam_arrange">
       <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(E3))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="11" operator="containsText" text="camdays_per_loc">
+    <cfRule type="containsText" dxfId="129" priority="11" operator="containsText" text="camdays_per_loc">
       <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(E3))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="12" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(E3))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="128" priority="13" operator="containsText" text="cam_days_ttl">
       <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(E3))))</formula>
@@ -64686,20 +64677,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:H2 L1:S313 I1:J317 G3:H317">
-    <cfRule type="containsText" dxfId="126" priority="79" operator="containsText" text="cam_arrange">
-      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(E1))))</formula>
+    <cfRule type="containsText" dxfId="126" priority="83" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(E1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="80" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(E1))))</formula>
+    <cfRule type="containsText" dxfId="125" priority="82" operator="containsText" text="cam_days_ttl">
+      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(E1))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="124" priority="81" operator="containsText" text="survey_duration">
       <formula>NOT(ISERROR(SEARCH(("survey_duration"),(E1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="82" operator="containsText" text="cam_days_ttl">
-      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(E1))))</formula>
+    <cfRule type="containsText" dxfId="123" priority="79" operator="containsText" text="cam_arrange">
+      <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(E1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="83" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(E1))))</formula>
+    <cfRule type="containsText" dxfId="122" priority="80" operator="containsText" text="camdays_per_loc">
+      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(E1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
@@ -64728,23 +64719,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H288:I289 Q288:R289">
-    <cfRule type="containsText" dxfId="114" priority="54" operator="containsText" text="num_cams">
-      <formula>NOT(ISERROR(SEARCH(("num_cams"),(H288))))</formula>
+    <cfRule type="containsText" dxfId="114" priority="56" operator="containsText" text="camdays_per_loc">
+      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(H288))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="113" priority="55" operator="containsText" text="cam_arrange">
       <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(H288))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="56" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(H288))))</formula>
+    <cfRule type="containsText" dxfId="112" priority="54" operator="containsText" text="num_cams">
+      <formula>NOT(ISERROR(SEARCH(("num_cams"),(H288))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="57" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(H288))))</formula>
+    <cfRule type="containsText" dxfId="111" priority="59" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(H288))))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="110" priority="58" operator="containsText" text="cam_days_ttl">
       <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(H288))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="59" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(H288))))</formula>
+    <cfRule type="containsText" dxfId="109" priority="57" operator="containsText" text="survey_duration">
+      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(H288))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
@@ -64786,14 +64777,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62 M62:O62">
-    <cfRule type="containsText" dxfId="100" priority="61" operator="containsText" text="**Minumum -**">
-      <formula>NOT(ISERROR(SEARCH("**Minumum -**",J62)))</formula>
+    <cfRule type="containsText" dxfId="100" priority="63" operator="containsText" text="hr_size">
+      <formula>NOT(ISERROR(SEARCH("hr_size",J62)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="99" priority="62" operator="equal">
       <formula>"min"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="63" operator="containsText" text="hr_size">
-      <formula>NOT(ISERROR(SEARCH("hr_size",J62)))</formula>
+    <cfRule type="containsText" dxfId="98" priority="61" operator="containsText" text="**Minumum -**">
+      <formula>NOT(ISERROR(SEARCH("**Minumum -**",J62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L30 H20:I59 J106:J155 M106:O155 J190:J213 M190:O213 J215 M215:O215 J218:J222 M218:O222 L247:L313 J285 M285:O285 D106:E158 AS1:AS317 AQ3:AQ37 AP54:AP313 AQ247:AQ313">
@@ -64822,11 +64813,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39">
-    <cfRule type="containsText" dxfId="92" priority="70" operator="containsText" text="hr_size">
+    <cfRule type="cellIs" dxfId="92" priority="71" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="70" operator="containsText" text="hr_size">
       <formula>NOT(ISERROR(SEARCH("hr_size",L39)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="71" operator="equal">
-      <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:L58 AQ1:AR2">
@@ -64912,11 +64903,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V251">
-    <cfRule type="containsText" dxfId="70" priority="51" operator="containsText" text="sp_occ_restr">
+    <cfRule type="containsText" dxfId="70" priority="52" operator="containsText" text="hr_size">
+      <formula>NOT(ISERROR(SEARCH("hr_size",V251)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="51" operator="containsText" text="sp_occ_restr">
       <formula>NOT(ISERROR(SEARCH("sp_occ_restr",V251)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="52" operator="containsText" text="hr_size">
-      <formula>NOT(ISERROR(SEARCH("hr_size",V251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ299:AJ313">
@@ -65077,63 +65068,63 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1">
-    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="num_cams">
+    <cfRule type="containsText" dxfId="59" priority="20" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(A1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="17" operator="containsText" text="camdays_per_loc">
+      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(A1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="18" operator="containsText" text="survey_duration">
+      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(A1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="19" operator="containsText" text="cam_days_ttl">
+      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(A1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="num_cams">
       <formula>NOT(ISERROR(SEARCH(("num_cams"),(A1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="16" operator="containsText" text="cam_arrange">
+    <cfRule type="containsText" dxfId="54" priority="16" operator="containsText" text="cam_arrange">
       <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(A1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="17" operator="containsText" text="camdays_per_loc">
-      <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(A1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="18" operator="containsText" text="survey_duration">
-      <formula>NOT(ISERROR(SEARCH(("survey_duration"),(A1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="19" operator="containsText" text="cam_days_ttl">
-      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(A1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="20" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B7">
-    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="num_cams">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="cam_days_ttl">
+      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(B1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(B1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="num_cams">
       <formula>NOT(ISERROR(SEARCH(("num_cams"),(B1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="cam_arrange">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="cam_arrange">
       <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(B1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="camdays_per_loc">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="camdays_per_loc">
       <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(B1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="survey_duration">
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="survey_duration">
       <formula>NOT(ISERROR(SEARCH(("survey_duration"),(B1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="55" operator="containsText" text="cam_days_ttl">
-      <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(B1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="56" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="containsText" dxfId="47" priority="21" operator="containsText" text="num_cams">
+    <cfRule type="containsText" dxfId="47" priority="26" operator="containsText" text="cam_spacing">
+      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(C1))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="21" operator="containsText" text="num_cams">
       <formula>NOT(ISERROR(SEARCH(("num_cams"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="22" operator="containsText" text="cam_arrange">
+    <cfRule type="containsText" dxfId="45" priority="22" operator="containsText" text="cam_arrange">
       <formula>NOT(ISERROR(SEARCH(("cam_arrange"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="23" operator="containsText" text="camdays_per_loc">
+    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="camdays_per_loc">
       <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="24" operator="containsText" text="survey_duration">
+    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="survey_duration">
       <formula>NOT(ISERROR(SEARCH(("survey_duration"),(C1))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="cam_days_ttl">
+    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="cam_days_ttl">
       <formula>NOT(ISERROR(SEARCH(("cam_days_ttl"),(C1))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="26" operator="containsText" text="cam_spacing">
-      <formula>NOT(ISERROR(SEARCH(("cam_spacing"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C7">
@@ -65183,26 +65174,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:M11">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="Survey duration">
-      <formula>NOT(ISERROR(SEARCH(("Survey duration"),(H11))))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="Total number of camera days">
+    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="Total number of camera days">
       <formula>NOT(ISERROR(SEARCH(("Total number of camera days"),(H11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="camdays_per_loc">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="camdays_per_loc">
       <formula>NOT(ISERROR(SEARCH(("camdays_per_loc"),(H11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Camera spacing">
+    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="Camera spacing">
       <formula>NOT(ISERROR(SEARCH(("Camera spacing"),(H11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Camera days per camera location">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="Camera days per camera location">
       <formula>NOT(ISERROR(SEARCH(("Camera days per camera location"),(H11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Camera arrangement">
+    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="Camera arrangement">
       <formula>NOT(ISERROR(SEARCH(("Camera arrangement"),(H11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Number of cameras">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Number of cameras">
       <formula>NOT(ISERROR(SEARCH(("Number of cameras"),(H11))))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Survey duration">
+      <formula>NOT(ISERROR(SEARCH(("Survey duration"),(H11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
